--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2200 +418,2458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.886421109930393</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>48.08055471433328</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.01105255594581034</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.01181138106449496</v>
+      </c>
+      <c r="E2">
         <v>4.272192245441247</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.760361342204428</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>18.65335179615009</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I2">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J2">
         <v>3.231756842278001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>16.27631728774689</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>1.813216185181683</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>11.04394107343825</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>2.065555091419167</v>
       </c>
-      <c r="N2" t="n">
-        <v>110.2254176067408</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>115.7349292012208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.94833312224559</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>49.6585501470207</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.01220386385683225</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.01304173325871319</v>
+      </c>
+      <c r="E3">
         <v>4.717212271008044</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.803491988176374</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>18.94481041796494</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I3">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J3">
         <v>3.119208096527027</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>15.70948036727809</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>1.439906970585455</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>8.770188499495079</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.1206437193891092</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>1.906666238233077</v>
       </c>
-      <c r="N3" t="n">
-        <v>109.1506957017803</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>114.6602863405435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.973603331353835</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>50.30262991546456</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01128281752801471</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.01205745150333861</v>
+      </c>
+      <c r="E4">
         <v>4.361196250554606</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.846622634148317</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>19.23626903977978</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1782733109313852</v>
+      </c>
+      <c r="I4">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="J4">
         <v>2.910188997275215</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>14.65678322926461</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>1.439906970585455</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>8.770188499495079</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.1105900761066834</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>1.747777385046988</v>
       </c>
-      <c r="N4" t="n">
-        <v>108.3670391466031</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>113.5705247294197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.134069159191181</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>54.39253644508295</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.009440724870379662</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.01008888799258945</v>
+      </c>
+      <c r="E5">
         <v>3.649164209647731</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.97601457206415</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>20.11064490522432</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.3041132951182454</v>
+      </c>
+      <c r="I5">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="J5">
         <v>2.861953820524797</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>14.41385312049227</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>1.386577082785994</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>8.445366703217486</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>1.588888531860898</v>
       </c>
-      <c r="N5" t="n">
-        <v>112.0690457077864</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>120.9449066659908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.436048158034694</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>62.08928967798695</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.008980201705970896</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.009596747114902156</v>
+      </c>
+      <c r="E6">
         <v>3.471156199421013</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.717230696232484</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>18.36189317433524</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.6711465823299209</v>
+      </c>
+      <c r="I6">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="J6">
         <v>2.411758837520897</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>12.14650543861708</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>4.222683351608743</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>1.429999678674808</v>
       </c>
-      <c r="N6" t="n">
-        <v>110.0793167450727</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>129.6666098037664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.600304517238277</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>66.27580817287199</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.003453923733065729</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.003691056582654675</v>
+      </c>
+      <c r="E7">
         <v>1.33506007670039</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.854617776793601</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>12.53272073803834</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.7026065783766359</v>
+      </c>
+      <c r="I7">
+        <v>19.80219539646828</v>
+      </c>
+      <c r="J7">
         <v>1.559604048263513</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>7.854740183639047</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>4.222683351608743</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>1.588888531860898</v>
       </c>
-      <c r="N7" t="n">
-        <v>100.6217062949651</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>121.1267454026596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.978657373175483</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>50.43144586915331</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.004374970061883258</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.004675338338029256</v>
+      </c>
+      <c r="E8">
         <v>1.691076097153827</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.544708112344709</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>17.19605868707587</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.4194666139562005</v>
+      </c>
+      <c r="I8">
+        <v>11.82220620684673</v>
+      </c>
+      <c r="J8">
         <v>1.157644242010031</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>5.830322610536201</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>0.6399586535935357</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>3.897861555331148</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N8" t="n">
-        <v>85.70999316337303</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>97.9519663524521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.575597537898995</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>40.15837356247396</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.00460523164408764</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.004921408776872901</v>
+      </c>
+      <c r="E9">
         <v>1.780080102267187</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.595833900961935</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>10.78396900714927</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.7969865665167807</v>
+      </c>
+      <c r="I9">
+        <v>22.46219179300879</v>
+      </c>
+      <c r="J9">
         <v>0.5305869442545971</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>2.672231196495758</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>4.547505147886341</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N9" t="n">
-        <v>64.90222854963014</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>88.1617230862885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.305206300440789</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>33.26672004012476</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.00230261582204382</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.002460704388436451</v>
+      </c>
+      <c r="E10">
         <v>0.8900400511335933</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.33705002513027</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>9.035217276260202</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3984932832583903</v>
+      </c>
+      <c r="I10">
+        <v>11.2310958965044</v>
+      </c>
+      <c r="J10">
         <v>0.4984301597543187</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>2.51027779064753</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>0.9066080925908417</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>5.521970536719127</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N10" t="n">
-        <v>55.44276538509199</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>67.07251265342117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.9274166742725447</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>23.63772750188922</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.00460523164408764</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.004921408776872901</v>
+      </c>
+      <c r="E11">
         <v>1.780080102267187</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6900903355511071</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4.663337949037523</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I11">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J11">
         <v>0.5466653365047366</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>2.753207899419872</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.6399586535935357</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>3.897861555331148</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N11" t="n">
-        <v>40.21672122538502</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>45.72579017187913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.5698432153908957</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14.52399877840879</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.00460523164408764</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.004921408776872901</v>
+      </c>
+      <c r="E12">
         <v>1.780080102267187</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.3881758137474977</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>2.623127596333607</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.0943799881401451</v>
+      </c>
+      <c r="I12">
+        <v>2.659996396540516</v>
+      </c>
+      <c r="J12">
         <v>0.3054894527526469</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>1.538557355558164</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>2.923396166498362</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N12" t="n">
-        <v>25.47512769573342</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>28.22982025754686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.4043233457318993</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>10.30527629510157</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.006907847466131459</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.00738211316530935</v>
+      </c>
+      <c r="E13">
         <v>2.670120153400779</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.4313064597194419</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>2.914586218148453</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.06291999209343008</v>
+      </c>
+      <c r="I13">
+        <v>1.77333093102701</v>
+      </c>
+      <c r="J13">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>1.619534058482278</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.5866287657940743</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>3.573039759053552</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>22.83329074790097</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>24.67001593672059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.2666007060919712</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.795041557082597</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.007368370630540222</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.007874254042996642</v>
+      </c>
+      <c r="E14">
         <v>2.848128163627498</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.2587838758316651</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.748751730889071</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I14">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J14">
         <v>0.3537246295030648</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>1.781487464330505</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.8532782047913802</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>5.197148740441532</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N14" t="n">
-        <v>20.27925593968834</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>21.19788728466101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.2034251833213619</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.184842135972979</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.005526277972905168</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.005905690532247481</v>
+      </c>
+      <c r="E15">
         <v>2.136096122720624</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.4744371056913861</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3.206044839963298</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I15">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J15">
         <v>0.2733326682523683</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>1.376603949709936</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.7466184291924577</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>4.547505147886341</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N15" t="n">
-        <v>18.49231685362069</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>19.71686354826032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1857360369455913</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.733986298062283</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002072354239839438</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002214633949592805</v>
+      </c>
+      <c r="E16">
         <v>0.8010360460202338</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5606983976352744</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3.788962083592987</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I16">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J16">
         <v>0.2572542760022289</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>1.295627246785822</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.6399586535935357</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>3.897861555331148</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N16" t="n">
-        <v>16.33213544467746</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>17.25040318594743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.3739990948020071</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>9.532380572968954</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.002993400568656965</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.003198915704967385</v>
+      </c>
+      <c r="E17">
         <v>1.157052066473671</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.8626129194388839</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>5.829172436296905</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I17">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J17">
         <v>0.5949005132551545</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>2.996138008192214</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>0.9599379803903033</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>5.846792332996723</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N17" t="n">
-        <v>28.66280681478902</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>29.58113779148555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.8238088169287449</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>20.99700045126945</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.001842092657635056</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.00196856351074916</v>
+      </c>
+      <c r="E18">
         <v>0.7120320409068744</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1.380180671102214</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>9.326675898075045</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.5033599367474406</v>
+      </c>
+      <c r="I18">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="J18">
         <v>1.366663341261841</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>6.88301974854968</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>1.759886297382223</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>10.71911927716066</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18">
         <v>0.0301609298472773</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18">
         <v>0.4766665595582693</v>
       </c>
-      <c r="N18" t="n">
-        <v>54.47705612469991</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>69.16718998051654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.45051000281319</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>36.9701787086769</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.003223662150861348</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.003444986143811031</v>
+      </c>
+      <c r="E19">
         <v>1.24605607158703</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>2.544708112344709</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>17.19605868707587</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>1.038179869541596</v>
+      </c>
+      <c r="I19">
+        <v>29.25996036194566</v>
+      </c>
+      <c r="J19">
         <v>2.315288484020061</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>11.6606452210724</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>3.146463380168216</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>19.16448598037814</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>1.588888531860898</v>
       </c>
-      <c r="N19" t="n">
-        <v>97.38704327497253</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>127.6854048304527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.964758758165949</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>50.0772019965092</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.003453923733065729</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.003691056582654675</v>
+      </c>
+      <c r="E20">
         <v>1.33506007670039</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2.242793590541098</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>15.15584833437195</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.9018532200058313</v>
+      </c>
+      <c r="I20">
+        <v>25.41774334472048</v>
+      </c>
+      <c r="J20">
         <v>2.250974915019504</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>11.33673840937595</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>2.719824277772526</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>16.56591161015737</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>1.588888531860898</v>
       </c>
-      <c r="N20" t="n">
-        <v>105.3419908570321</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>131.661824554608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.557908391523225</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>39.70751772456325</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003684185315270111</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003937127021498321</v>
+      </c>
+      <c r="E21">
         <v>1.424064081813749</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1.121396795270549</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>7.577924167185975</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3775199525605804</v>
+      </c>
+      <c r="I21">
+        <v>10.63998558616207</v>
+      </c>
+      <c r="J21">
         <v>1.768623147515324</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>8.907437321652527</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>1.973205848580068</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>12.01840646227104</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N21" t="n">
-        <v>76.73593811156503</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>87.75369659199391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.844725264901791</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>47.01782309640093</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.0115130791102191</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.01230352194218225</v>
+      </c>
+      <c r="E22">
         <v>4.450200255667966</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3.49358232372748</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>23.60814836700246</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.3880066179094854</v>
+      </c>
+      <c r="I22">
+        <v>10.93554074133323</v>
+      </c>
+      <c r="J22">
         <v>3.344305588028977</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>16.84315420821569</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>3.573102482563906</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>21.76306035059891</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N22" t="n">
-        <v>126.6253850020924</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>137.9497228041671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.657725717500788</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>42.25163280991644</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.01197360227462786</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.01279566281986954</v>
+      </c>
+      <c r="E23">
         <v>4.628208265894683</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>2.846622634148317</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>19.23626903977978</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.2411933030248154</v>
+      </c>
+      <c r="I23">
+        <v>6.797768568936874</v>
+      </c>
+      <c r="J23">
         <v>3.617638256281345</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>18.21975815792562</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>2.719824277772526</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>16.56591161015737</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N23" t="n">
-        <v>112.6002768539941</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>119.640060786501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.73985389710258</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>44.34489205735897</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.01197360227462786</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.01279566281986954</v>
+      </c>
+      <c r="E24">
         <v>4.628208265894683</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.544708112344709</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>17.19605868707587</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2307066376759104</v>
+      </c>
+      <c r="I24">
+        <v>6.502213413765702</v>
+      </c>
+      <c r="J24">
         <v>3.376462372529255</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>17.00510761406391</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>2.399844950975758</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>14.61698083249181</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>1.588888531860898</v>
       </c>
-      <c r="N24" t="n">
-        <v>109.5535153567973</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>116.2872574687842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.755016022567526</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>44.73133991842525</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.009210463288175279</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.009842817553745803</v>
+      </c>
+      <c r="E25">
         <v>3.560160204534373</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.67410005026054</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>18.0704345525204</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2202199723270053</v>
+      </c>
+      <c r="I25">
+        <v>6.206658258594537</v>
+      </c>
+      <c r="J25">
         <v>2.669013113523126</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>13.4421326854029</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>2.239855287577374</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>13.64251544365902</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>1.112221972302628</v>
       </c>
-      <c r="N25" t="n">
-        <v>103.9763752170383</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>110.4038858022254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.805556440784014</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>46.01949945531293</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.009901248034788427</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.01058102887027674</v>
+      </c>
+      <c r="E26">
         <v>3.82717221987445</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>2.372185528456931</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>16.03022419981649</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1258399841868602</v>
+      </c>
+      <c r="I26">
+        <v>3.54666186205402</v>
+      </c>
+      <c r="J26">
         <v>3.408619157029535</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>17.16706101991214</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>2.986473716769831</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>18.19002059154536</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>1.271110825488718</v>
       </c>
-      <c r="N26" t="n">
-        <v>113.1682535492846</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>116.841435176361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.895265683118279</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>48.30598263328861</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.007828893794948987</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.008366394920683931</v>
+      </c>
+      <c r="E27">
         <v>3.026136173854217</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3.321059739839704</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>22.44231387974308</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.2516799683737203</v>
+      </c>
+      <c r="I27">
+        <v>7.093323724108041</v>
+      </c>
+      <c r="J27">
         <v>2.861953820524797</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>14.41385312049227</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>1.173257531588149</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>7.146079518107104</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>1.112221972302628</v>
       </c>
-      <c r="N27" t="n">
-        <v>105.7763284696308</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>113.1218696632383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.834617181258493</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>46.76019118902338</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.01197360227462786</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.01279566281986954</v>
+      </c>
+      <c r="E28">
         <v>4.628208265894683</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3.277929093867759</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>22.15085525792823</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2307066376759104</v>
+      </c>
+      <c r="I28">
+        <v>6.502213413765702</v>
+      </c>
+      <c r="J28">
         <v>2.701169898023404</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>13.60408609125114</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>2.399844950975758</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>14.61698083249181</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.1608582925188123</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>2.542221650977436</v>
       </c>
-      <c r="N28" t="n">
-        <v>114.6889363064855</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>121.4226784184724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2.017826197293261</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>51.42976951024128</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.01036177119919719</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.01107316974796402</v>
+      </c>
+      <c r="E29">
         <v>4.005180230101169</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>3.19166780192387</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>21.56793801429854</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.3041132951182454</v>
+      </c>
+      <c r="I29">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="J29">
         <v>2.685091505773264</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>13.52310938832702</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>1.439906970585455</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>8.770188499495079</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.2513410820606441</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>3.972221329652244</v>
       </c>
-      <c r="N29" t="n">
-        <v>112.864602300951</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>121.7405264945819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.528284421279782</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>64.44018083280702</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.005065754808496403</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.00541354965456019</v>
+      </c>
+      <c r="E30">
         <v>1.958088112493905</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2.027140360681377</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>13.69855522529772</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.5033599367474406</v>
+      </c>
+      <c r="I30">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="J30">
         <v>2.3313668762702</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>11.74162192399652</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>1.119927643788687</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>6.821257721829508</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.1306973626715349</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>2.065555091419167</v>
       </c>
-      <c r="N30" t="n">
-        <v>108.8677413273439</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>123.5580965071535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2.63062876816817</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>67.04870389500458</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.006677585883927077</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.007136042726465706</v>
+      </c>
+      <c r="E31">
         <v>2.581116148287419</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.544708112344709</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>17.19605868707587</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.7340665744233509</v>
+      </c>
+      <c r="I31">
+        <v>20.68886086198179</v>
+      </c>
+      <c r="J31">
         <v>1.784701539765464</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>8.988414024576642</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>1.013267868189764</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>6.171614129274317</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N31" t="n">
-        <v>110.6416607444449</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>132.0650466376926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2.081001720063871</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>53.03996893135091</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.004835493226292021</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.005167479215716545</v>
+      </c>
+      <c r="E32">
         <v>1.869084107380546</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.15653229859721</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>14.57293109074226</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.4928732713985358</v>
+      </c>
+      <c r="I32">
+        <v>13.89109229304492</v>
+      </c>
+      <c r="J32">
         <v>1.254114595510866</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>6.316182828080882</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>0.7999483169919194</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>4.872326944163936</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>1.429999678674808</v>
       </c>
-      <c r="N32" t="n">
-        <v>88.48740879432532</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>102.8717063447582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.742380918013404</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>44.40930003420333</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.006907847466131459</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.00738211316530935</v>
+      </c>
+      <c r="E33">
         <v>2.670120153400779</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.682095192905824</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>11.36688625077896</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.6711465823299209</v>
+      </c>
+      <c r="I33">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="J33">
         <v>0.8039196125069655</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>4.048835146205693</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>0.8532782047913802</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>5.197148740441532</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N33" t="n">
-        <v>72.94981459718252</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>92.53696537616639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.431557345982006</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>36.487118882344</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.00460523164408764</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.004921408776872901</v>
+      </c>
+      <c r="E34">
         <v>1.780080102267187</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.121396795270549</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>7.577924167185975</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3250866258160554</v>
+      </c>
+      <c r="I34">
+        <v>9.162209810306221</v>
+      </c>
+      <c r="J34">
         <v>0.5145085520044579</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>2.591254493571644</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>0.4266391023956901</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>2.598574370220766</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N34" t="n">
-        <v>55.20942902876043</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>64.69704164201548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.01207187478516</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>25.79539472617612</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.004374970061883258</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.004675338338029256</v>
+      </c>
+      <c r="E35">
         <v>1.691076097153827</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.078266149298605</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>7.286465545371131</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.1782733109313852</v>
+      </c>
+      <c r="I35">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="J35">
         <v>0.3858814140033436</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>1.943440870178733</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>4.222683351608743</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N35" t="n">
-        <v>44.28188603649906</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>49.48489735361645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.6368092695277418</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>16.23081016478498</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.008059155377153369</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.008612465359527578</v>
+      </c>
+      <c r="E36">
         <v>3.115140178967576</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.4313064597194419</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>2.914586218148453</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.0943799881401451</v>
+      </c>
+      <c r="I36">
+        <v>2.659996396540516</v>
+      </c>
+      <c r="J36">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>1.619534058482278</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.4799689901951517</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>2.923396166498362</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N36" t="n">
-        <v>28.85012100317243</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>31.60505069783547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.4839245044228674</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>12.3341275656997</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.009670986452584043</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.01033495843143309</v>
+      </c>
+      <c r="E37">
         <v>3.738168214761092</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.4313064597194419</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2.914586218148453</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.04194666139562005</v>
+      </c>
+      <c r="I37">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="J37">
         <v>0.2733326682523683</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>1.376603949709936</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>3.248217962775958</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.04021457312970306</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.6355554127443591</v>
       </c>
-      <c r="N37" t="n">
-        <v>26.01900739381107</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>27.24383864787021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.27165474791362</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.923857510771366</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.006677585883927077</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.007136042726465706</v>
+      </c>
+      <c r="E38">
         <v>2.581116148287419</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.3450451677755536</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>2.331668974518761</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.02097333069781003</v>
+      </c>
+      <c r="I38">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="J38">
         <v>0.3215678450027861</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>1.619534058482278</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>3.248217962775958</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N38" t="n">
-        <v>18.52052387234331</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>19.133065970226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.1819455055793548</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.637374332795709</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.004835493226292021</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.005167479215716545</v>
+      </c>
+      <c r="E39">
         <v>1.869084107380546</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.5175677516633301</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3.497503461778142</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.01048666534890501</v>
+      </c>
+      <c r="I39">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="J39">
         <v>0.3054894527526469</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>1.538557355558164</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>0.5332988779946127</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>3.248217962775958</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N39" t="n">
-        <v>16.50281679797327</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>16.80919060448277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1832090160347669</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.669578321217902</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.002532877404248202</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.002706774827280095</v>
+      </c>
+      <c r="E40">
         <v>0.9790440562469523</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.4744371056913861</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>3.206044839963298</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.03145999604671504</v>
+      </c>
+      <c r="I40">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="J40">
         <v>0.3376462372529255</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>1.700510761406392</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.6932885413929969</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>4.222683351608743</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.02010728656485153</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.3177777063721796</v>
       </c>
-      <c r="N40" t="n">
-        <v>16.80686010115664</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>17.72515946013989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.3424113334167024</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8.72728086241414</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.002532877404248202</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.002706774827280095</v>
+      </c>
+      <c r="E41">
         <v>0.9790440562469523</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.6038290436072188</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>4.080420705407833</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.05243332674452506</v>
+      </c>
+      <c r="I41">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="J41">
         <v>0.8199980047571048</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>4.129811849129808</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>1.066597755989225</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>6.496435925551915</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41">
         <v>0.01005364328242577</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41">
         <v>0.1588888531860898</v>
       </c>
-      <c r="N41" t="n">
-        <v>27.41730491039366</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>28.94768791041706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.8895113606101785</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>22.67160784922344</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.002532877404248202</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.002706774827280095</v>
+      </c>
+      <c r="E42">
         <v>0.9790440562469523</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>1.121396795270549</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>7.577924167185975</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.4404399446540105</v>
+      </c>
+      <c r="I42">
+        <v>12.41331651718907</v>
+      </c>
+      <c r="J42">
         <v>1.623917617264071</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>8.178646995335502</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.973205848580068</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>12.01840646227104</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>1.271110825488718</v>
       </c>
-      <c r="N42" t="n">
-        <v>58.38773400114016</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>71.24166436040628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.324158957271971</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>33.74977986645764</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.00115130791102191</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001230352194218225</v>
+      </c>
+      <c r="E43">
         <v>0.4450200255667967</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>1.595833900961935</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>10.78396900714927</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.8599065586102109</v>
+      </c>
+      <c r="I43">
+        <v>24.23552272403581</v>
+      </c>
+      <c r="J43">
         <v>1.977642246767135</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>9.960134459666005</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>3.946411697160135</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>24.03681292454208</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43">
         <v>0.09048278954183189</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43">
         <v>1.429999678674808</v>
       </c>
-      <c r="N43" t="n">
-        <v>89.34139686167062</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>114.4369051885999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2.120170544181649</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>54.03829257243886</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.003914446897474493</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.004183197460341966</v>
+      </c>
+      <c r="E44">
         <v>1.513068086927108</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>2.027140360681377</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>13.69855522529772</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.9647732120992615</v>
+      </c>
+      <c r="I44">
+        <v>27.1910742757475</v>
+      </c>
+      <c r="J44">
         <v>2.347445268520339</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>11.82259862692063</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>2.87981394117091</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>17.54037699899016</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.1809655790836638</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>2.859999357349615</v>
       </c>
-      <c r="N44" t="n">
-        <v>111.0323410084595</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>139.1884572468691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2.151758305566952</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>54.84339228299365</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.008059155377153369</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.008612465359527578</v>
+      </c>
+      <c r="E45">
         <v>3.115140178967576</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>2.45844682040082</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>16.61314144344617</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.5033599367474406</v>
+      </c>
+      <c r="I45">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="J45">
         <v>2.685091505773264</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>13.52310938832702</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>3.253123155767137</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>19.81412957293334</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>1.271110825488718</v>
       </c>
-      <c r="N45" t="n">
-        <v>119.8169317813012</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>134.5074924762471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.847252285812616</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>47.08223107324533</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.01243412543903663</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.01328780369755683</v>
+      </c>
+      <c r="E46">
         <v>4.806216276121401</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>3.795496845531089</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>25.64835871970638</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.4614132753518208</v>
+      </c>
+      <c r="I46">
+        <v>13.0044268275314</v>
+      </c>
+      <c r="J46">
         <v>2.942345781775494</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>14.81873663511284</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>3.466442706964983</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>21.11341675804372</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.08042914625940613</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>1.271110825488718</v>
       </c>
-      <c r="N46" t="n">
-        <v>126.884471179501</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>140.3511649606427</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.374699375488458</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>35.03793940334536</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.009440724870379662</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.01008888799258945</v>
+      </c>
+      <c r="E47">
         <v>3.649164209647731</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2.199662944569153</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>14.86438971255711</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.1992466416291952</v>
+      </c>
+      <c r="I47">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="J47">
         <v>2.604699544522568</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>13.11822587370645</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>2.346515063176297</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>14.29215903621421</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.05026821641212882</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.7944442659304488</v>
       </c>
-      <c r="N47" t="n">
-        <v>90.3416083704403</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>96.15705112344389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.442928940080716</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>36.77695477814372</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.009440724870379662</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.01008888799258945</v>
+      </c>
+      <c r="E48">
         <v>3.649164209647731</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.940879068737489</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>13.11563798166803</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.1992466416291952</v>
+      </c>
+      <c r="I48">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="J48">
         <v>2.443915622021175</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>12.30845884446531</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>2.07986562417899</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>12.66805005482624</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.1005364328242576</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>1.588888531860898</v>
       </c>
-      <c r="N48" t="n">
-        <v>88.12472081332494</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>93.94016356632854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.455564044634838</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>37.09899466236567</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.007368370630540222</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.007874254042996642</v>
+      </c>
+      <c r="E49">
         <v>2.848128163627498</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>2.070271006653321</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>13.99001384711257</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.1887599762802902</v>
+      </c>
+      <c r="I49">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="J49">
         <v>1.929407070016717</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>9.717204350893667</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>1.919875960780607</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>11.69358466599345</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.07037550297698036</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>1.112221972302628</v>
       </c>
-      <c r="N49" t="n">
-        <v>83.91300961798848</v>
+      <c r="P49">
+        <v>89.42226827076226</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.886421109930393</v>
+        <v>2.734490426307796</v>
       </c>
       <c r="C2">
-        <v>48.08055471433328</v>
+        <v>69.69589974677703</v>
       </c>
       <c r="D2">
-        <v>0.01181138106449496</v>
+        <v>0.01712136716044618</v>
       </c>
       <c r="E2">
-        <v>4.272192245441247</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="F2">
-        <v>2.760361342204428</v>
+        <v>4.001323789091116</v>
       </c>
       <c r="G2">
-        <v>18.65335179615009</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="H2">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I2">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J2">
-        <v>3.231756842278001</v>
+        <v>4.684642309632546</v>
       </c>
       <c r="K2">
-        <v>16.27631728774689</v>
+        <v>23.59358340754267</v>
       </c>
       <c r="L2">
-        <v>1.813216185181683</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M2">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N2">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O2">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P2">
-        <v>115.7349292012208</v>
+        <v>167.7653278073348</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.94833312224559</v>
+        <v>2.824235925898608</v>
       </c>
       <c r="C3">
-        <v>49.6585501470207</v>
+        <v>71.98330703920305</v>
       </c>
       <c r="D3">
-        <v>0.01304173325871319</v>
+        <v>0.01890484290632599</v>
       </c>
       <c r="E3">
-        <v>4.717212271008044</v>
+        <v>6.837906831104704</v>
       </c>
       <c r="F3">
-        <v>2.803491988176374</v>
+        <v>4.063844473295664</v>
       </c>
       <c r="G3">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H3">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I3">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J3">
-        <v>3.119208096527027</v>
+        <v>4.521495562530917</v>
       </c>
       <c r="K3">
-        <v>15.70948036727809</v>
+        <v>22.7719163236979</v>
       </c>
       <c r="L3">
-        <v>1.439906970585455</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M3">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N3">
-        <v>0.1206437193891092</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O3">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P3">
-        <v>114.6602863405435</v>
+        <v>166.2075628953792</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.973603331353835</v>
+        <v>2.860866742058124</v>
       </c>
       <c r="C4">
-        <v>50.30262991546456</v>
+        <v>72.91694266876473</v>
       </c>
       <c r="D4">
-        <v>0.01205745150333861</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E4">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F4">
-        <v>2.846622634148317</v>
+        <v>4.126365157500214</v>
       </c>
       <c r="G4">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H4">
-        <v>0.1782733109313852</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I4">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J4">
-        <v>2.910188997275215</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K4">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L4">
-        <v>1.439906970585455</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M4">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N4">
-        <v>0.1105900761066834</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O4">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P4">
-        <v>113.5705247294197</v>
+        <v>164.6278823686459</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.134069159191181</v>
+        <v>3.093472424671045</v>
       </c>
       <c r="C5">
-        <v>54.39253644508295</v>
+        <v>78.84552891648116</v>
       </c>
       <c r="D5">
-        <v>0.01008888799258945</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E5">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F5">
-        <v>2.97601457206415</v>
+        <v>4.31392721011386</v>
       </c>
       <c r="G5">
-        <v>20.11064490522432</v>
+        <v>29.15169135392082</v>
       </c>
       <c r="H5">
-        <v>0.3041132951182454</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I5">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J5">
-        <v>2.861953820524797</v>
+        <v>4.148588712012901</v>
       </c>
       <c r="K5">
-        <v>14.41385312049227</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="L5">
-        <v>1.386577082785994</v>
+        <v>2.00993391043848</v>
       </c>
       <c r="M5">
-        <v>8.445366703217486</v>
+        <v>12.24210982109874</v>
       </c>
       <c r="N5">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O5">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P5">
-        <v>120.9449066659908</v>
+        <v>175.317529923658</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.436048158034694</v>
+        <v>3.531210677777247</v>
       </c>
       <c r="C6">
-        <v>62.08928967798695</v>
+        <v>90.00247468974285</v>
       </c>
       <c r="D6">
-        <v>0.009596747114902156</v>
+        <v>0.01391111081786252</v>
       </c>
       <c r="E6">
-        <v>3.471156199421013</v>
+        <v>5.031667290812894</v>
       </c>
       <c r="F6">
-        <v>2.717230696232484</v>
+        <v>3.938803104886567</v>
       </c>
       <c r="G6">
-        <v>18.36189317433524</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="H6">
-        <v>0.6711465823299209</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I6">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J6">
-        <v>2.411758837520897</v>
+        <v>3.496001723606378</v>
       </c>
       <c r="K6">
-        <v>12.14650543861708</v>
+        <v>17.60715179667363</v>
       </c>
       <c r="L6">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M6">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N6">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O6">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P6">
-        <v>129.6666098037664</v>
+        <v>187.96020742859</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.600304517238277</v>
+        <v>3.769310982814096</v>
       </c>
       <c r="C7">
-        <v>66.27580817287199</v>
+        <v>96.07110628189356</v>
       </c>
       <c r="D7">
-        <v>0.003691056582654675</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E7">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F7">
-        <v>1.854617776793601</v>
+        <v>2.688389420795594</v>
       </c>
       <c r="G7">
-        <v>12.53272073803834</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="H7">
-        <v>0.7026065783766359</v>
+        <v>1.018474057525089</v>
       </c>
       <c r="I7">
-        <v>19.80219539646828</v>
+        <v>28.70457367470663</v>
       </c>
       <c r="J7">
-        <v>1.559604048263513</v>
+        <v>2.260747781265458</v>
       </c>
       <c r="K7">
-        <v>7.854740183639047</v>
+        <v>11.38595816184895</v>
       </c>
       <c r="L7">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M7">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N7">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O7">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P7">
-        <v>121.1267454026596</v>
+        <v>175.5811170315075</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.978657373175483</v>
+        <v>2.868192905290025</v>
       </c>
       <c r="C8">
-        <v>50.43144586915331</v>
+        <v>73.10366979467703</v>
       </c>
       <c r="D8">
-        <v>0.004675338338029256</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E8">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F8">
-        <v>2.544708112344709</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G8">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H8">
-        <v>0.4194666139562005</v>
+        <v>0.6080442134478141</v>
       </c>
       <c r="I8">
-        <v>11.82220620684673</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="J8">
-        <v>1.157644242010031</v>
+        <v>1.678080827331061</v>
       </c>
       <c r="K8">
-        <v>5.830322610536201</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="L8">
-        <v>0.6399586535935357</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M8">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N8">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O8">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P8">
-        <v>97.9519663524521</v>
+        <v>141.987763399598</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.575597537898995</v>
+        <v>2.283931387545761</v>
       </c>
       <c r="C9">
-        <v>40.15837356247396</v>
+        <v>58.21218150316875</v>
       </c>
       <c r="D9">
-        <v>0.004921408776872901</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E9">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F9">
-        <v>1.595833900961935</v>
+        <v>2.313265315568301</v>
       </c>
       <c r="G9">
-        <v>10.78396900714927</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="H9">
-        <v>0.7969865665167807</v>
+        <v>1.155284005550847</v>
       </c>
       <c r="I9">
-        <v>22.46219179300879</v>
+        <v>32.56041192951798</v>
       </c>
       <c r="J9">
-        <v>0.5305869442545971</v>
+        <v>0.7691203791934029</v>
       </c>
       <c r="K9">
-        <v>2.672231196495758</v>
+        <v>3.873573395268199</v>
       </c>
       <c r="L9">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M9">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N9">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O9">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P9">
-        <v>88.1617230862885</v>
+        <v>127.7961672911677</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.305206300440789</v>
+        <v>1.891981654638951</v>
       </c>
       <c r="C10">
-        <v>33.26672004012476</v>
+        <v>48.22228026685909</v>
       </c>
       <c r="D10">
-        <v>0.002460704388436451</v>
+        <v>0.003566951491759621</v>
       </c>
       <c r="E10">
-        <v>0.8900400511335933</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="F10">
-        <v>1.33705002513027</v>
+        <v>1.938141210341009</v>
       </c>
       <c r="G10">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H10">
-        <v>0.3984932832583903</v>
+        <v>0.5776420027754234</v>
       </c>
       <c r="I10">
-        <v>11.2310958965044</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="J10">
-        <v>0.4984301597543187</v>
+        <v>0.7225070228786514</v>
       </c>
       <c r="K10">
-        <v>2.51027779064753</v>
+        <v>3.638811371312551</v>
       </c>
       <c r="L10">
-        <v>0.9066080925908417</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M10">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N10">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O10">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P10">
-        <v>67.07251265342117</v>
+        <v>97.22598138543746</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.9274166742725447</v>
+        <v>1.344350953054201</v>
       </c>
       <c r="C11">
-        <v>23.63772750188922</v>
+        <v>34.26442760491248</v>
       </c>
       <c r="D11">
-        <v>0.004921408776872901</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E11">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F11">
-        <v>0.6900903355511071</v>
+        <v>1.000330947272779</v>
       </c>
       <c r="G11">
-        <v>4.663337949037523</v>
+        <v>6.759812487865697</v>
       </c>
       <c r="H11">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I11">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J11">
-        <v>0.5466653365047366</v>
+        <v>0.7924270573507791</v>
       </c>
       <c r="K11">
-        <v>2.753207899419872</v>
+        <v>3.990954407246023</v>
       </c>
       <c r="L11">
-        <v>0.6399586535935357</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M11">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N11">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O11">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P11">
-        <v>45.72579017187913</v>
+        <v>66.28251497088915</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.5698432153908957</v>
+        <v>0.8260249043970641</v>
       </c>
       <c r="C12">
-        <v>14.52399877840879</v>
+        <v>21.05348344661515</v>
       </c>
       <c r="D12">
-        <v>0.004921408776872901</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E12">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F12">
-        <v>0.3881758137474977</v>
+        <v>0.5626861578409382</v>
       </c>
       <c r="G12">
-        <v>2.623127596333607</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="H12">
-        <v>0.0943799881401451</v>
+        <v>0.1368099480257582</v>
       </c>
       <c r="I12">
-        <v>2.659996396540516</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="J12">
-        <v>0.3054894527526469</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K12">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L12">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M12">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N12">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O12">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P12">
-        <v>28.22982025754686</v>
+        <v>40.92096553854834</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.4043233457318993</v>
+        <v>0.5860930585522403</v>
       </c>
       <c r="C13">
-        <v>10.30527629510157</v>
+        <v>14.93817007298637</v>
       </c>
       <c r="D13">
-        <v>0.00738211316530935</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E13">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F13">
-        <v>0.4313064597194419</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G13">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H13">
-        <v>0.06291999209343008</v>
+        <v>0.09120663201717216</v>
       </c>
       <c r="I13">
-        <v>1.77333093102701</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="J13">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K13">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L13">
-        <v>0.5866287657940743</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M13">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P13">
-        <v>24.67001593672059</v>
+        <v>35.76079701435932</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2666007060919712</v>
+        <v>0.3864551104828834</v>
       </c>
       <c r="C14">
-        <v>6.795041557082597</v>
+        <v>9.849855891875391</v>
       </c>
       <c r="D14">
-        <v>0.007874254042996642</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E14">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F14">
-        <v>0.2587838758316651</v>
+        <v>0.3751241052272922</v>
       </c>
       <c r="G14">
-        <v>1.748751730889071</v>
+        <v>2.534929682949637</v>
       </c>
       <c r="H14">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I14">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J14">
-        <v>0.3537246295030648</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K14">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L14">
-        <v>0.8532782047913802</v>
+        <v>1.236882406423681</v>
       </c>
       <c r="M14">
-        <v>5.197148740441532</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="N14">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O14">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P14">
-        <v>21.19788728466101</v>
+        <v>30.72772009002603</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2034251833213619</v>
+        <v>0.2948780700840958</v>
       </c>
       <c r="C15">
-        <v>5.184842135972979</v>
+        <v>7.515766817971267</v>
       </c>
       <c r="D15">
-        <v>0.005905690532247481</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E15">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F15">
-        <v>0.4744371056913861</v>
+        <v>0.6877275262500354</v>
       </c>
       <c r="G15">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H15">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I15">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J15">
-        <v>0.2733326682523683</v>
+        <v>0.3962135286753896</v>
       </c>
       <c r="K15">
-        <v>1.376603949709936</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="L15">
-        <v>0.7466184291924577</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M15">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N15">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O15">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P15">
-        <v>19.71686354826032</v>
+        <v>28.58087959560866</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1857360369455913</v>
+        <v>0.2692364987724354</v>
       </c>
       <c r="C16">
-        <v>4.733986298062283</v>
+        <v>6.862221877278112</v>
       </c>
       <c r="D16">
-        <v>0.002214633949592805</v>
+        <v>0.00321025634258366</v>
       </c>
       <c r="E16">
-        <v>0.8010360460202338</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="F16">
-        <v>0.5606983976352744</v>
+        <v>0.8127688946591326</v>
       </c>
       <c r="G16">
-        <v>3.788962083592987</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="H16">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I16">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J16">
-        <v>0.2572542760022289</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K16">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L16">
-        <v>0.6399586535935357</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M16">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N16">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O16">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P16">
-        <v>17.25040318594743</v>
+        <v>25.00558444432554</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3739990948020071</v>
+        <v>0.5421360791608226</v>
       </c>
       <c r="C17">
-        <v>9.532380572968954</v>
+        <v>13.81780731751239</v>
       </c>
       <c r="D17">
-        <v>0.003198915704967385</v>
+        <v>0.004637036939287507</v>
       </c>
       <c r="E17">
-        <v>1.157052066473671</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="F17">
-        <v>0.8626129194388839</v>
+        <v>1.250413684090974</v>
       </c>
       <c r="G17">
-        <v>5.829172436296905</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="H17">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I17">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J17">
-        <v>0.5949005132551545</v>
+        <v>0.8623470918229067</v>
       </c>
       <c r="K17">
-        <v>2.996138008192214</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="L17">
-        <v>0.9599379803903033</v>
+        <v>1.39149270722664</v>
       </c>
       <c r="M17">
-        <v>5.846792332996723</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="N17">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O17">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P17">
-        <v>29.58113779148555</v>
+        <v>42.87978843339688</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.8238088169287449</v>
+        <v>1.19416460680019</v>
       </c>
       <c r="C18">
-        <v>20.99700045126945</v>
+        <v>30.43652152370971</v>
       </c>
       <c r="D18">
-        <v>0.00196856351074916</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E18">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F18">
-        <v>1.380180671102214</v>
+        <v>2.000661894545558</v>
       </c>
       <c r="G18">
-        <v>9.326675898075045</v>
+        <v>13.51962497573139</v>
       </c>
       <c r="H18">
-        <v>0.5033599367474406</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I18">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J18">
-        <v>1.366663341261841</v>
+        <v>1.981067643376947</v>
       </c>
       <c r="K18">
-        <v>6.88301974854968</v>
+        <v>9.977386018115057</v>
       </c>
       <c r="L18">
-        <v>1.759886297382223</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M18">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N18">
-        <v>0.0301609298472773</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O18">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P18">
-        <v>69.16718998051654</v>
+        <v>100.2623527804531</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.45051000281319</v>
+        <v>2.102608847556162</v>
       </c>
       <c r="C19">
-        <v>36.9701787086769</v>
+        <v>53.59068513683859</v>
       </c>
       <c r="D19">
-        <v>0.003444986143811031</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E19">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F19">
-        <v>2.544708112344709</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G19">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H19">
-        <v>1.038179869541596</v>
+        <v>1.504909428283341</v>
       </c>
       <c r="I19">
-        <v>29.25996036194566</v>
+        <v>42.41422080292472</v>
       </c>
       <c r="J19">
-        <v>2.315288484020061</v>
+        <v>3.356161654662122</v>
       </c>
       <c r="K19">
-        <v>11.6606452210724</v>
+        <v>16.90286572480669</v>
       </c>
       <c r="L19">
-        <v>3.146463380168216</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M19">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N19">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O19">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P19">
-        <v>127.6854048304527</v>
+        <v>185.0883216107519</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.964758758165949</v>
+        <v>2.848045956402294</v>
       </c>
       <c r="C20">
-        <v>50.0772019965092</v>
+        <v>72.59017019841815</v>
       </c>
       <c r="D20">
-        <v>0.003691056582654675</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E20">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F20">
-        <v>2.242793590541098</v>
+        <v>3.25107557863653</v>
       </c>
       <c r="G20">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H20">
-        <v>0.9018532200058313</v>
+        <v>1.307295058912801</v>
       </c>
       <c r="I20">
-        <v>25.41774334472048</v>
+        <v>36.84467665708613</v>
       </c>
       <c r="J20">
-        <v>2.250974915019504</v>
+        <v>3.262934942032619</v>
       </c>
       <c r="K20">
-        <v>11.33673840937595</v>
+        <v>16.43334167689539</v>
       </c>
       <c r="L20">
-        <v>2.719824277772526</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M20">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N20">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O20">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P20">
-        <v>131.661824554608</v>
+        <v>190.8524013326362</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.557908391523225</v>
+        <v>2.258289816234101</v>
       </c>
       <c r="C21">
-        <v>39.70751772456325</v>
+        <v>57.55863656247558</v>
       </c>
       <c r="D21">
-        <v>0.003937127021498321</v>
+        <v>0.005707122386815392</v>
       </c>
       <c r="E21">
-        <v>1.424064081813749</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="F21">
-        <v>1.121396795270549</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G21">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H21">
-        <v>0.3775199525605804</v>
+        <v>0.547239792103033</v>
       </c>
       <c r="I21">
-        <v>10.63998558616207</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="J21">
-        <v>1.768623147515324</v>
+        <v>2.563734597311344</v>
       </c>
       <c r="K21">
-        <v>8.907437321652527</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="L21">
-        <v>1.973205848580068</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M21">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N21">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O21">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P21">
-        <v>87.75369659199391</v>
+        <v>127.2047062772642</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.844725264901791</v>
+        <v>2.674049579644597</v>
       </c>
       <c r="C22">
-        <v>47.01782309640093</v>
+        <v>68.1554009580003</v>
       </c>
       <c r="D22">
-        <v>0.01230352194218225</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E22">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F22">
-        <v>3.49358232372748</v>
+        <v>5.064175420568444</v>
       </c>
       <c r="G22">
-        <v>23.60814836700246</v>
+        <v>34.22155071982009</v>
       </c>
       <c r="H22">
-        <v>0.3880066179094854</v>
+        <v>0.562440897439228</v>
       </c>
       <c r="I22">
-        <v>10.93554074133323</v>
+        <v>15.85177949200217</v>
       </c>
       <c r="J22">
-        <v>3.344305588028977</v>
+        <v>4.847789056734178</v>
       </c>
       <c r="K22">
-        <v>16.84315420821569</v>
+        <v>24.41525049138744</v>
       </c>
       <c r="L22">
-        <v>3.573102482563906</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M22">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N22">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O22">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P22">
-        <v>137.9497228041671</v>
+        <v>199.9671199256926</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.657725717500788</v>
+        <v>2.402981540064186</v>
       </c>
       <c r="C23">
-        <v>42.25163280991644</v>
+        <v>61.24649729924414</v>
       </c>
       <c r="D23">
-        <v>0.01279566281986954</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E23">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F23">
-        <v>2.846622634148317</v>
+        <v>4.126365157500214</v>
       </c>
       <c r="G23">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H23">
-        <v>0.2411933030248154</v>
+        <v>0.3496254227324931</v>
       </c>
       <c r="I23">
-        <v>6.797768568936874</v>
+        <v>9.853808873406754</v>
       </c>
       <c r="J23">
-        <v>3.617638256281345</v>
+        <v>5.244002585409567</v>
       </c>
       <c r="K23">
-        <v>18.21975815792562</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="L23">
-        <v>2.719824277772526</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M23">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N23">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O23">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P23">
-        <v>119.640060786501</v>
+        <v>173.4260707226933</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.73985389710258</v>
+        <v>2.522031692582609</v>
       </c>
       <c r="C24">
-        <v>44.34489205735897</v>
+        <v>64.28081309531944</v>
       </c>
       <c r="D24">
-        <v>0.01279566281986954</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E24">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F24">
-        <v>2.544708112344709</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G24">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H24">
-        <v>0.2307066376759104</v>
+        <v>0.3344243173962979</v>
       </c>
       <c r="I24">
-        <v>6.502213413765702</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="J24">
-        <v>3.376462372529255</v>
+        <v>4.894402413048931</v>
       </c>
       <c r="K24">
-        <v>17.00510761406391</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="L24">
-        <v>2.399844950975758</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M24">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N24">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O24">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P24">
-        <v>116.2872574687842</v>
+        <v>168.5659636525767</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.755016022567526</v>
+        <v>2.544010182278318</v>
       </c>
       <c r="C25">
-        <v>44.73133991842525</v>
+        <v>64.84099447305643</v>
       </c>
       <c r="D25">
-        <v>0.009842817553745803</v>
+        <v>0.01426780596703848</v>
       </c>
       <c r="E25">
-        <v>3.560160204534373</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="F25">
-        <v>2.67410005026054</v>
+        <v>3.876282420682018</v>
       </c>
       <c r="G25">
-        <v>18.0704345525204</v>
+        <v>26.19427339047958</v>
       </c>
       <c r="H25">
-        <v>0.2202199723270053</v>
+        <v>0.3192232120601024</v>
       </c>
       <c r="I25">
-        <v>6.206658258594537</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="J25">
-        <v>2.669013113523126</v>
+        <v>3.868908574124391</v>
       </c>
       <c r="K25">
-        <v>13.4421326854029</v>
+        <v>19.48524798831882</v>
       </c>
       <c r="L25">
-        <v>2.239855287577374</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M25">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N25">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O25">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P25">
-        <v>110.4038858022254</v>
+        <v>160.0376327237476</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.805556440784014</v>
+        <v>2.617271814597349</v>
       </c>
       <c r="C26">
-        <v>46.01949945531293</v>
+        <v>66.70826573217971</v>
       </c>
       <c r="D26">
-        <v>0.01058102887027674</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E26">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F26">
-        <v>2.372185528456931</v>
+        <v>3.438637631250179</v>
       </c>
       <c r="G26">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H26">
-        <v>0.1258399841868602</v>
+        <v>0.1824132640343443</v>
       </c>
       <c r="I26">
-        <v>3.54666186205402</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="J26">
-        <v>3.408619157029535</v>
+        <v>4.94101576936368</v>
       </c>
       <c r="K26">
-        <v>17.16706101991214</v>
+        <v>24.88477453929874</v>
       </c>
       <c r="L26">
-        <v>2.986473716769831</v>
+        <v>4.329088422482879</v>
       </c>
       <c r="M26">
-        <v>18.19002059154536</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="N26">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O26">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P26">
-        <v>116.841435176361</v>
+        <v>169.3692803817337</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.895265683118279</v>
+        <v>2.747311211963628</v>
       </c>
       <c r="C27">
-        <v>48.30598263328861</v>
+        <v>70.02267221712361</v>
       </c>
       <c r="D27">
-        <v>0.008366394920683931</v>
+        <v>0.01212763507198271</v>
       </c>
       <c r="E27">
-        <v>3.026136173854217</v>
+        <v>4.386581740708678</v>
       </c>
       <c r="F27">
-        <v>3.321059739839704</v>
+        <v>4.81409268375025</v>
       </c>
       <c r="G27">
-        <v>22.44231387974308</v>
+        <v>32.53159759785367</v>
       </c>
       <c r="H27">
-        <v>0.2516799683737203</v>
+        <v>0.3648265280686886</v>
       </c>
       <c r="I27">
-        <v>7.093323724108041</v>
+        <v>10.28223534616357</v>
       </c>
       <c r="J27">
-        <v>2.861953820524797</v>
+        <v>4.148588712012901</v>
       </c>
       <c r="K27">
-        <v>14.41385312049227</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="L27">
-        <v>1.173257531588149</v>
+        <v>1.700713308832559</v>
       </c>
       <c r="M27">
-        <v>7.146079518107104</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="N27">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O27">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P27">
-        <v>113.1218696632383</v>
+        <v>163.9775275901028</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.834617181258493</v>
+        <v>2.659397253180791</v>
       </c>
       <c r="C28">
-        <v>46.76019118902338</v>
+        <v>67.7819467061756</v>
       </c>
       <c r="D28">
-        <v>0.01279566281986954</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E28">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F28">
-        <v>3.277929093867759</v>
+        <v>4.751571999545701</v>
       </c>
       <c r="G28">
-        <v>22.15085525792823</v>
+        <v>32.10910931736205</v>
       </c>
       <c r="H28">
-        <v>0.2307066376759104</v>
+        <v>0.3344243173962979</v>
       </c>
       <c r="I28">
-        <v>6.502213413765702</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="J28">
-        <v>2.701169898023404</v>
+        <v>3.915521930439143</v>
       </c>
       <c r="K28">
-        <v>13.60408609125114</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="L28">
-        <v>2.399844950975758</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M28">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N28">
-        <v>0.1608582925188123</v>
+        <v>0.2331745857642261</v>
       </c>
       <c r="O28">
-        <v>2.542221650977436</v>
+        <v>3.685116080155988</v>
       </c>
       <c r="P28">
-        <v>121.4226784184724</v>
+        <v>176.0100912379073</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.017826197293261</v>
+        <v>2.924970670337275</v>
       </c>
       <c r="C29">
-        <v>51.42976951024128</v>
+        <v>74.55080502049761</v>
       </c>
       <c r="D29">
-        <v>0.01107316974796402</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E29">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F29">
-        <v>3.19166780192387</v>
+        <v>4.626530631136602</v>
       </c>
       <c r="G29">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H29">
-        <v>0.3041132951182454</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I29">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J29">
-        <v>2.685091505773264</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K29">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L29">
-        <v>1.439906970585455</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M29">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N29">
-        <v>0.2513410820606441</v>
+        <v>0.3643352902566033</v>
       </c>
       <c r="O29">
-        <v>3.972221329652244</v>
+        <v>5.757993875243733</v>
       </c>
       <c r="P29">
-        <v>121.7405264945819</v>
+        <v>176.4708327534505</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.528284421279782</v>
+        <v>3.66491315675948</v>
       </c>
       <c r="C30">
-        <v>64.44018083280702</v>
+        <v>93.41024473764281</v>
       </c>
       <c r="D30">
-        <v>0.00541354965456019</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E30">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F30">
-        <v>2.027140360681377</v>
+        <v>2.938472157613789</v>
       </c>
       <c r="G30">
-        <v>13.69855522529772</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="H30">
-        <v>0.5033599367474406</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I30">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J30">
-        <v>2.3313668762702</v>
+        <v>3.379468332819498</v>
       </c>
       <c r="K30">
-        <v>11.74162192399652</v>
+        <v>17.02024673678451</v>
       </c>
       <c r="L30">
-        <v>1.119927643788687</v>
+        <v>1.62340815843108</v>
       </c>
       <c r="M30">
-        <v>6.821257721829508</v>
+        <v>9.887857932425902</v>
       </c>
       <c r="N30">
-        <v>0.1306973626715349</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O30">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P30">
-        <v>123.5580965071535</v>
+        <v>179.1055190238476</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.63062876816817</v>
+        <v>3.813267962205515</v>
       </c>
       <c r="C31">
-        <v>67.04870389500458</v>
+        <v>97.19146903736753</v>
       </c>
       <c r="D31">
-        <v>0.007136042726465706</v>
+        <v>0.0103441593261029</v>
       </c>
       <c r="E31">
-        <v>2.581116148287419</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="F31">
-        <v>2.544708112344709</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G31">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H31">
-        <v>0.7340665744233509</v>
+        <v>1.064077373533675</v>
       </c>
       <c r="I31">
-        <v>20.68886086198179</v>
+        <v>29.98985309297707</v>
       </c>
       <c r="J31">
-        <v>1.784701539765464</v>
+        <v>2.58704127546872</v>
       </c>
       <c r="K31">
-        <v>8.988414024576642</v>
+        <v>13.02929232953849</v>
       </c>
       <c r="L31">
-        <v>1.013267868189764</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M31">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N31">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O31">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P31">
-        <v>132.0650466376926</v>
+        <v>191.4368980391596</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.081001720063871</v>
+        <v>3.016547710736063</v>
       </c>
       <c r="C32">
-        <v>53.03996893135091</v>
+        <v>76.88489409440172</v>
       </c>
       <c r="D32">
-        <v>0.005167479215716545</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E32">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F32">
-        <v>2.15653229859721</v>
+        <v>3.126034210227434</v>
       </c>
       <c r="G32">
-        <v>14.57293109074226</v>
+        <v>21.1244140245803</v>
       </c>
       <c r="H32">
-        <v>0.4928732713985358</v>
+        <v>0.7144519508011817</v>
       </c>
       <c r="I32">
-        <v>13.89109229304492</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="J32">
-        <v>1.254114595510866</v>
+        <v>1.817920896275317</v>
       </c>
       <c r="K32">
-        <v>6.316182828080882</v>
+        <v>9.15571893427029</v>
       </c>
       <c r="L32">
-        <v>0.7999483169919194</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M32">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N32">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O32">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P32">
-        <v>102.8717063447582</v>
+        <v>149.1192473710539</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.742380918013404</v>
+        <v>2.525694774198561</v>
       </c>
       <c r="C33">
-        <v>44.40930003420333</v>
+        <v>64.37417665827562</v>
       </c>
       <c r="D33">
-        <v>0.00738211316530935</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E33">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F33">
-        <v>1.682095192905824</v>
+        <v>2.438306683977398</v>
       </c>
       <c r="G33">
-        <v>11.36688625077896</v>
+        <v>16.47704293917263</v>
       </c>
       <c r="H33">
-        <v>0.6711465823299209</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I33">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J33">
-        <v>0.8039196125069655</v>
+        <v>1.165333907868793</v>
       </c>
       <c r="K33">
-        <v>4.048835146205693</v>
+        <v>5.869050598891212</v>
       </c>
       <c r="L33">
-        <v>0.8532782047913802</v>
+        <v>1.236882406423681</v>
       </c>
       <c r="M33">
-        <v>5.197148740441532</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="N33">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O33">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P33">
-        <v>92.53696537616639</v>
+        <v>134.1383663322343</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.431557345982006</v>
+        <v>2.075135735436526</v>
       </c>
       <c r="C34">
-        <v>36.487118882344</v>
+        <v>52.89045841466737</v>
       </c>
       <c r="D34">
-        <v>0.004921408776872901</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E34">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F34">
-        <v>1.121396795270549</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G34">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H34">
-        <v>0.3250866258160554</v>
+        <v>0.4712342654220559</v>
       </c>
       <c r="I34">
-        <v>9.162209810306221</v>
+        <v>13.28122065546128</v>
       </c>
       <c r="J34">
-        <v>0.5145085520044579</v>
+        <v>0.7458137010360274</v>
       </c>
       <c r="K34">
-        <v>2.591254493571644</v>
+        <v>3.756192383290375</v>
       </c>
       <c r="L34">
-        <v>0.4266391023956901</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M34">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="N34">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O34">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P34">
-        <v>64.69704164201548</v>
+        <v>93.78258123238247</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.01207187478516</v>
+        <v>1.467064187188576</v>
       </c>
       <c r="C35">
-        <v>25.79539472617612</v>
+        <v>37.39210696394399</v>
       </c>
       <c r="D35">
-        <v>0.004675338338029256</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E35">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F35">
-        <v>1.078266149298605</v>
+        <v>1.563017105113717</v>
       </c>
       <c r="G35">
-        <v>7.286465545371131</v>
+        <v>10.56220701229015</v>
       </c>
       <c r="H35">
-        <v>0.1782733109313852</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I35">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J35">
-        <v>0.3858814140033436</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K35">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L35">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M35">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N35">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O35">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P35">
-        <v>49.48489735361645</v>
+        <v>71.73158598998141</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.6368092695277418</v>
+        <v>0.9230965672197783</v>
       </c>
       <c r="C36">
-        <v>16.23081016478498</v>
+        <v>23.52761786495353</v>
       </c>
       <c r="D36">
-        <v>0.008612465359527578</v>
+        <v>0.01248433022115867</v>
       </c>
       <c r="E36">
-        <v>3.115140178967576</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="F36">
-        <v>0.4313064597194419</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G36">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H36">
-        <v>0.0943799881401451</v>
+        <v>0.1368099480257582</v>
       </c>
       <c r="I36">
-        <v>2.659996396540516</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="J36">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K36">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L36">
-        <v>0.4799689901951517</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M36">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N36">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O36">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P36">
-        <v>31.60505069783547</v>
+        <v>45.81358218547108</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.4839245044228674</v>
+        <v>0.7014801294547126</v>
       </c>
       <c r="C37">
-        <v>12.3341275656997</v>
+        <v>17.87912230610557</v>
       </c>
       <c r="D37">
-        <v>0.01033495843143309</v>
+        <v>0.01498119626539041</v>
       </c>
       <c r="E37">
-        <v>3.738168214761092</v>
+        <v>5.418718620875426</v>
       </c>
       <c r="F37">
-        <v>0.4313064597194419</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G37">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H37">
-        <v>0.04194666139562005</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I37">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J37">
-        <v>0.2733326682523683</v>
+        <v>0.3962135286753896</v>
       </c>
       <c r="K37">
-        <v>1.376603949709936</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="L37">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M37">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N37">
-        <v>0.04021457312970306</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O37">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P37">
-        <v>27.24383864787021</v>
+        <v>39.49172089217362</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.27165474791362</v>
+        <v>0.3937812737147865</v>
       </c>
       <c r="C38">
-        <v>6.923857510771366</v>
+        <v>10.03658301778772</v>
       </c>
       <c r="D38">
-        <v>0.007136042726465706</v>
+        <v>0.0103441593261029</v>
       </c>
       <c r="E38">
-        <v>2.581116148287419</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="F38">
-        <v>0.3450451677755536</v>
+        <v>0.5001654736363895</v>
       </c>
       <c r="G38">
-        <v>2.331668974518761</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="H38">
-        <v>0.02097333069781003</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I38">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J38">
-        <v>0.3215678450027861</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K38">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L38">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M38">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N38">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>19.133065970226</v>
+        <v>27.73462693249282</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1819455055793548</v>
+        <v>0.2637418763485081</v>
       </c>
       <c r="C39">
-        <v>4.637374332795709</v>
+        <v>6.722176532843865</v>
       </c>
       <c r="D39">
-        <v>0.005167479215716545</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E39">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F39">
-        <v>0.5175677516633301</v>
+        <v>0.7502482104545843</v>
       </c>
       <c r="G39">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H39">
-        <v>0.01048666534890501</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I39">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J39">
-        <v>0.3054894527526469</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K39">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L39">
-        <v>0.5332988779946127</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M39">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N39">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O39">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P39">
-        <v>16.80919060448277</v>
+        <v>24.36601803275893</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1832090160347669</v>
+        <v>0.2655734171564841</v>
       </c>
       <c r="C40">
-        <v>4.669578321217902</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="D40">
-        <v>0.002706774827280095</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E40">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F40">
-        <v>0.4744371056913861</v>
+        <v>0.6877275262500354</v>
       </c>
       <c r="G40">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H40">
-        <v>0.03145999604671504</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I40">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J40">
-        <v>0.3376462372529255</v>
+        <v>0.4894402413048929</v>
       </c>
       <c r="K40">
-        <v>1.700510761406392</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="L40">
-        <v>0.6932885413929969</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M40">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N40">
-        <v>0.02010728656485153</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O40">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P40">
-        <v>17.72515946013989</v>
+        <v>25.69377462613322</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3424113334167024</v>
+        <v>0.4963475589614285</v>
       </c>
       <c r="C41">
-        <v>8.72728086241414</v>
+        <v>12.65076278056032</v>
       </c>
       <c r="D41">
-        <v>0.002706774827280095</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E41">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F41">
-        <v>0.6038290436072188</v>
+        <v>0.8752895788636813</v>
       </c>
       <c r="G41">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H41">
-        <v>0.05243332674452506</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I41">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J41">
-        <v>0.8199980047571048</v>
+        <v>1.188640586026169</v>
       </c>
       <c r="K41">
-        <v>4.129811849129808</v>
+        <v>5.986431610869034</v>
       </c>
       <c r="L41">
-        <v>1.066597755989225</v>
+        <v>1.5461030080296</v>
       </c>
       <c r="M41">
-        <v>6.496435925551915</v>
+        <v>9.417007554691338</v>
       </c>
       <c r="N41">
-        <v>0.01005364328242577</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O41">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P41">
-        <v>28.94768791041706</v>
+        <v>41.96156151883935</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.8895113606101785</v>
+        <v>1.289404728814928</v>
       </c>
       <c r="C42">
-        <v>22.67160784922344</v>
+        <v>32.86397416057</v>
       </c>
       <c r="D42">
-        <v>0.002706774827280095</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E42">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F42">
-        <v>1.121396795270549</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G42">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H42">
-        <v>0.4404399446540105</v>
+        <v>0.6384464241202048</v>
       </c>
       <c r="I42">
-        <v>12.41331651718907</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="J42">
-        <v>1.623917617264071</v>
+        <v>2.353974493894961</v>
       </c>
       <c r="K42">
-        <v>8.178646995335502</v>
+        <v>11.85548220976025</v>
       </c>
       <c r="L42">
-        <v>1.973205848580068</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M42">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N42">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O42">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P42">
-        <v>71.24166436040628</v>
+        <v>103.2694386859107</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.324158957271971</v>
+        <v>1.919454766758588</v>
       </c>
       <c r="C43">
-        <v>33.74977986645764</v>
+        <v>48.92250698903035</v>
       </c>
       <c r="D43">
-        <v>0.001230352194218225</v>
+        <v>0.00178347574587981</v>
       </c>
       <c r="E43">
-        <v>0.4450200255667967</v>
+        <v>0.6450855501042174</v>
       </c>
       <c r="F43">
-        <v>1.595833900961935</v>
+        <v>2.313265315568301</v>
       </c>
       <c r="G43">
-        <v>10.78396900714927</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="H43">
-        <v>0.8599065586102109</v>
+        <v>1.246490637568019</v>
       </c>
       <c r="I43">
-        <v>24.23552272403581</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="J43">
-        <v>1.977642246767135</v>
+        <v>2.86672141335723</v>
       </c>
       <c r="K43">
-        <v>9.960134459666005</v>
+        <v>14.43786447327238</v>
       </c>
       <c r="L43">
-        <v>3.946411697160135</v>
+        <v>5.72058112970952</v>
       </c>
       <c r="M43">
-        <v>24.03681292454208</v>
+        <v>34.84292795235795</v>
       </c>
       <c r="N43">
-        <v>0.09048278954183189</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O43">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P43">
-        <v>114.4369051885999</v>
+        <v>165.8837573473008</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.120170544181649</v>
+        <v>3.073325475783312</v>
       </c>
       <c r="C44">
-        <v>54.03829257243886</v>
+        <v>78.33202932022226</v>
       </c>
       <c r="D44">
-        <v>0.004183197460341966</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E44">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F44">
-        <v>2.027140360681377</v>
+        <v>2.938472157613789</v>
       </c>
       <c r="G44">
-        <v>13.69855522529772</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="H44">
-        <v>0.9647732120992615</v>
+        <v>1.398501690929973</v>
       </c>
       <c r="I44">
-        <v>27.1910742757475</v>
+        <v>39.41523549362702</v>
       </c>
       <c r="J44">
-        <v>2.347445268520339</v>
+        <v>3.402775010976875</v>
       </c>
       <c r="K44">
-        <v>11.82259862692063</v>
+        <v>17.13762774876234</v>
       </c>
       <c r="L44">
-        <v>2.87981394117091</v>
+        <v>4.174478121679919</v>
       </c>
       <c r="M44">
-        <v>17.54037699899016</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="N44">
-        <v>0.1809655790836638</v>
+        <v>0.2623214089847543</v>
       </c>
       <c r="O44">
-        <v>2.859999357349615</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="P44">
-        <v>139.1884572468691</v>
+        <v>201.7627462874182</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.151758305566952</v>
+        <v>3.119113995982704</v>
       </c>
       <c r="C45">
-        <v>54.84339228299365</v>
+        <v>79.49907385717435</v>
       </c>
       <c r="D45">
-        <v>0.008612465359527578</v>
+        <v>0.01248433022115867</v>
       </c>
       <c r="E45">
-        <v>3.115140178967576</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="F45">
-        <v>2.45844682040082</v>
+        <v>3.563678999659275</v>
       </c>
       <c r="G45">
-        <v>16.61314144344617</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="H45">
-        <v>0.5033599367474406</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I45">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J45">
-        <v>2.685091505773264</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K45">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L45">
-        <v>3.253123155767137</v>
+        <v>4.715614174490279</v>
       </c>
       <c r="M45">
-        <v>19.81412957293334</v>
+        <v>28.72187304180859</v>
       </c>
       <c r="N45">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O45">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P45">
-        <v>134.5074924762471</v>
+        <v>194.9773825720904</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.847252285812616</v>
+        <v>2.677712661260548</v>
       </c>
       <c r="C46">
-        <v>47.08223107324533</v>
+        <v>68.24876452095647</v>
       </c>
       <c r="D46">
-        <v>0.01328780369755683</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E46">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F46">
-        <v>3.795496845531089</v>
+        <v>5.501820210000283</v>
       </c>
       <c r="G46">
-        <v>25.64835871970638</v>
+        <v>37.17896868326135</v>
       </c>
       <c r="H46">
-        <v>0.4614132753518208</v>
+        <v>0.6688486347925957</v>
       </c>
       <c r="I46">
-        <v>13.0044268275314</v>
+        <v>18.85076480129988</v>
       </c>
       <c r="J46">
-        <v>2.942345781775494</v>
+        <v>4.265122102799782</v>
       </c>
       <c r="K46">
-        <v>14.81873663511284</v>
+        <v>21.48072519194183</v>
       </c>
       <c r="L46">
-        <v>3.466442706964983</v>
+        <v>5.0248347760962</v>
       </c>
       <c r="M46">
-        <v>21.11341675804372</v>
+        <v>30.60527455274685</v>
       </c>
       <c r="N46">
-        <v>0.08042914625940613</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O46">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P46">
-        <v>140.3511649606427</v>
+        <v>203.448166947297</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.374699375488458</v>
+        <v>1.992716399077618</v>
       </c>
       <c r="C47">
-        <v>35.03793940334536</v>
+        <v>50.78977824815365</v>
       </c>
       <c r="D47">
-        <v>0.01008888799258945</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E47">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F47">
-        <v>2.199662944569153</v>
+        <v>3.188554894431982</v>
       </c>
       <c r="G47">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H47">
-        <v>0.1992466416291952</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I47">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J47">
-        <v>2.604699544522568</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K47">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L47">
-        <v>2.346515063176297</v>
+        <v>3.401426617665118</v>
       </c>
       <c r="M47">
-        <v>14.29215903621421</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="N47">
-        <v>0.05026821641212882</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O47">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P47">
-        <v>96.15705112344389</v>
+        <v>139.3859167154617</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.442928940080716</v>
+        <v>2.091619602708308</v>
       </c>
       <c r="C48">
-        <v>36.77695477814372</v>
+        <v>53.31059444797011</v>
       </c>
       <c r="D48">
-        <v>0.01008888799258945</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E48">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F48">
-        <v>1.940879068737489</v>
+        <v>2.81343078920469</v>
       </c>
       <c r="G48">
-        <v>13.11563798166803</v>
+        <v>19.01197262212227</v>
       </c>
       <c r="H48">
-        <v>0.1992466416291952</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I48">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J48">
-        <v>2.443915622021175</v>
+        <v>3.54261507992113</v>
       </c>
       <c r="K48">
-        <v>12.30845884446531</v>
+        <v>17.84191382062928</v>
       </c>
       <c r="L48">
-        <v>2.07986562417899</v>
+        <v>3.014900865657719</v>
       </c>
       <c r="M48">
-        <v>12.66805005482624</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="N48">
-        <v>0.1005364328242576</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O48">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P48">
-        <v>93.94016356632854</v>
+        <v>136.1723936217998</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.455564044634838</v>
+        <v>2.109935010788065</v>
       </c>
       <c r="C49">
-        <v>37.09899466236567</v>
+        <v>53.77741226275092</v>
       </c>
       <c r="D49">
-        <v>0.007874254042996642</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E49">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F49">
-        <v>2.070271006653321</v>
+        <v>3.000992841818337</v>
       </c>
       <c r="G49">
-        <v>13.99001384711257</v>
+        <v>20.27943746359709</v>
       </c>
       <c r="H49">
-        <v>0.1887599762802902</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I49">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J49">
-        <v>1.929407070016717</v>
+        <v>2.796801378885101</v>
       </c>
       <c r="K49">
-        <v>9.717204350893667</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="L49">
-        <v>1.919875960780607</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M49">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N49">
-        <v>0.07037550297698036</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O49">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P49">
-        <v>89.42226827076226</v>
+        <v>129.623409745531</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.734490426307796</v>
+        <v>1.858534884827074</v>
       </c>
       <c r="C2">
-        <v>69.69589974677703</v>
+        <v>47.36979868812139</v>
       </c>
       <c r="D2">
-        <v>0.01712136716044618</v>
+        <v>0.0116367780400633</v>
       </c>
       <c r="E2">
-        <v>6.192821281000486</v>
+        <v>4.209038099204289</v>
       </c>
       <c r="F2">
-        <v>4.001323789091116</v>
+        <v>2.719556000624015</v>
       </c>
       <c r="G2">
-        <v>27.03924995146279</v>
+        <v>18.37760659568527</v>
       </c>
       <c r="H2">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I2">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J2">
-        <v>4.684642309632546</v>
+        <v>3.18398304547911</v>
       </c>
       <c r="K2">
-        <v>23.59358340754267</v>
+        <v>16.03571085827585</v>
       </c>
       <c r="L2">
-        <v>2.628375113650319</v>
+        <v>1.78641211983552</v>
       </c>
       <c r="M2">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="N2">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O2">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P2">
-        <v>167.7653278073348</v>
+        <v>114.0240650304201</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.824235925898608</v>
+        <v>1.919531676090656</v>
       </c>
       <c r="C3">
-        <v>71.98330703920305</v>
+        <v>48.92446723180389</v>
       </c>
       <c r="D3">
-        <v>0.01890484290632599</v>
+        <v>0.01284894241923656</v>
       </c>
       <c r="E3">
-        <v>6.837906831104704</v>
+        <v>4.647479567871402</v>
       </c>
       <c r="F3">
-        <v>4.063844473295664</v>
+        <v>2.762049063133766</v>
       </c>
       <c r="G3">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="H3">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I3">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J3">
-        <v>4.521495562530917</v>
+        <v>3.073098063795757</v>
       </c>
       <c r="K3">
-        <v>22.7719163236979</v>
+        <v>15.47725326619659</v>
       </c>
       <c r="L3">
-        <v>2.08723906083996</v>
+        <v>1.418621389281148</v>
       </c>
       <c r="M3">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="N3">
-        <v>0.1748809393231696</v>
+        <v>0.1188602904937919</v>
       </c>
       <c r="O3">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="P3">
-        <v>166.2075628953792</v>
+        <v>112.9653081946398</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>2.860866742058124</v>
+        <v>1.944428325585996</v>
       </c>
       <c r="C4">
-        <v>72.91694266876473</v>
+        <v>49.55902582106204</v>
       </c>
       <c r="D4">
-        <v>0.01747806230962214</v>
+        <v>0.01187921091589795</v>
       </c>
       <c r="E4">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="F4">
-        <v>4.126365157500214</v>
+        <v>2.804542125643517</v>
       </c>
       <c r="G4">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="H4">
-        <v>0.258418790715321</v>
+        <v>0.1756379663350082</v>
       </c>
       <c r="I4">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="J4">
-        <v>4.21850874648503</v>
+        <v>2.867168812098103</v>
       </c>
       <c r="K4">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="L4">
-        <v>2.08723906083996</v>
+        <v>1.418621389281148</v>
       </c>
       <c r="M4">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="N4">
-        <v>0.1603075277129054</v>
+        <v>0.1089552662859759</v>
       </c>
       <c r="O4">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="P4">
-        <v>164.6278823686459</v>
+        <v>111.8916561029848</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>3.093472424671045</v>
+        <v>2.102522049881401</v>
       </c>
       <c r="C5">
-        <v>78.84552891648116</v>
+        <v>53.58847286285133</v>
       </c>
       <c r="D5">
-        <v>0.01462450111621445</v>
+        <v>0.009939747909220736</v>
       </c>
       <c r="E5">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="F5">
-        <v>4.31392721011386</v>
+        <v>2.932021313172767</v>
       </c>
       <c r="G5">
-        <v>29.15169135392082</v>
+        <v>19.81335711097318</v>
       </c>
       <c r="H5">
-        <v>0.4408320547496653</v>
+        <v>0.299617707277367</v>
       </c>
       <c r="I5">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="J5">
-        <v>4.148588712012901</v>
+        <v>2.819646677090953</v>
       </c>
       <c r="K5">
-        <v>20.89382013205271</v>
+        <v>14.20077877001543</v>
       </c>
       <c r="L5">
-        <v>2.00993391043848</v>
+        <v>1.366079856344809</v>
       </c>
       <c r="M5">
-        <v>12.24210982109874</v>
+        <v>8.320522151952535</v>
       </c>
       <c r="N5">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O5">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P5">
-        <v>175.317529923658</v>
+        <v>119.1570254370153</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>3.531210677777247</v>
+        <v>2.400037011350701</v>
       </c>
       <c r="C6">
-        <v>90.00247468974285</v>
+        <v>61.1714480044863</v>
       </c>
       <c r="D6">
-        <v>0.01391111081786252</v>
+        <v>0.00945488215755143</v>
       </c>
       <c r="E6">
-        <v>5.031667290812894</v>
+        <v>3.419843455603485</v>
       </c>
       <c r="F6">
-        <v>3.938803104886567</v>
+        <v>2.677062938114264</v>
       </c>
       <c r="G6">
-        <v>26.61676167097118</v>
+        <v>18.09045649262769</v>
       </c>
       <c r="H6">
-        <v>0.9728707415165028</v>
+        <v>0.6612252850259135</v>
       </c>
       <c r="I6">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="J6">
-        <v>3.496001723606378</v>
+        <v>2.376106750357545</v>
       </c>
       <c r="K6">
-        <v>17.60715179667363</v>
+        <v>11.96694840169839</v>
       </c>
       <c r="L6">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M6">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N6">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O6">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P6">
-        <v>187.96020742859</v>
+        <v>127.7497990501455</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>3.769310982814096</v>
+        <v>2.561865233070408</v>
       </c>
       <c r="C7">
-        <v>96.07110628189356</v>
+        <v>65.29607883466431</v>
       </c>
       <c r="D7">
-        <v>0.00535042723763943</v>
+        <v>0.003636493137519781</v>
       </c>
       <c r="E7">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="F7">
-        <v>2.688389420795594</v>
+        <v>1.827201687919261</v>
       </c>
       <c r="G7">
-        <v>18.16699606113906</v>
+        <v>12.34745443147603</v>
       </c>
       <c r="H7">
-        <v>1.018474057525089</v>
+        <v>0.692220220261503</v>
       </c>
       <c r="I7">
-        <v>28.70457367470663</v>
+        <v>19.50946729060745</v>
       </c>
       <c r="J7">
-        <v>2.260747781265458</v>
+        <v>1.536549031897879</v>
       </c>
       <c r="K7">
-        <v>11.38595816184895</v>
+        <v>7.738626633098295</v>
       </c>
       <c r="L7">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M7">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N7">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O7">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P7">
-        <v>175.5811170315075</v>
+        <v>119.3361761227942</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.868192905290025</v>
+        <v>1.949407655485063</v>
       </c>
       <c r="C8">
-        <v>73.10366979467703</v>
+        <v>49.68593753891364</v>
       </c>
       <c r="D8">
-        <v>0.006777207834343279</v>
+        <v>0.004606224640858389</v>
       </c>
       <c r="E8">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="F8">
-        <v>3.688720368068372</v>
+        <v>2.507090688075265</v>
       </c>
       <c r="G8">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="H8">
-        <v>0.6080442134478141</v>
+        <v>0.4132658031411959</v>
       </c>
       <c r="I8">
-        <v>17.13705891027262</v>
+        <v>11.64744315857161</v>
       </c>
       <c r="J8">
-        <v>1.678080827331061</v>
+        <v>1.140531240171621</v>
       </c>
       <c r="K8">
-        <v>8.451432862403344</v>
+        <v>5.744135232815229</v>
       </c>
       <c r="L8">
-        <v>0.9276618048177596</v>
+        <v>0.6304983952360658</v>
       </c>
       <c r="M8">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="N8">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O8">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P8">
-        <v>141.987763399598</v>
+        <v>96.50398076289409</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.283931387545761</v>
+        <v>1.552306096034402</v>
       </c>
       <c r="C9">
-        <v>58.21218150316875</v>
+        <v>39.56472804024607</v>
       </c>
       <c r="D9">
-        <v>0.007133902983519241</v>
+        <v>0.004848657516693041</v>
       </c>
       <c r="E9">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="F9">
-        <v>2.313265315568301</v>
+        <v>1.572243312860759</v>
       </c>
       <c r="G9">
-        <v>15.63206637818942</v>
+        <v>10.62455381313055</v>
       </c>
       <c r="H9">
-        <v>1.155284005550847</v>
+        <v>0.7852050259682724</v>
       </c>
       <c r="I9">
-        <v>32.56041192951798</v>
+        <v>22.13014200128606</v>
       </c>
       <c r="J9">
-        <v>0.7691203791934029</v>
+        <v>0.5227434850786598</v>
       </c>
       <c r="K9">
-        <v>3.873573395268199</v>
+        <v>2.632728648373647</v>
       </c>
       <c r="L9">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M9">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N9">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O9">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P9">
-        <v>127.7961672911677</v>
+        <v>86.85846283196942</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.891981654638951</v>
+        <v>1.285911946434272</v>
       </c>
       <c r="C10">
-        <v>48.22228026685909</v>
+        <v>32.77495113518378</v>
       </c>
       <c r="D10">
-        <v>0.003566951491759621</v>
+        <v>0.00242432875834652</v>
       </c>
       <c r="E10">
-        <v>1.290171100208435</v>
+        <v>0.8768829373342271</v>
       </c>
       <c r="F10">
-        <v>1.938141210341009</v>
+        <v>1.317284937802258</v>
       </c>
       <c r="G10">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="H10">
-        <v>0.5776420027754234</v>
+        <v>0.3926025129841362</v>
       </c>
       <c r="I10">
-        <v>16.28020596475899</v>
+        <v>11.06507100064303</v>
       </c>
       <c r="J10">
-        <v>0.7225070228786514</v>
+        <v>0.4910620617405592</v>
       </c>
       <c r="K10">
-        <v>3.638811371312551</v>
+        <v>2.473169336351002</v>
       </c>
       <c r="L10">
-        <v>1.314187556825159</v>
+        <v>0.89320605991776</v>
       </c>
       <c r="M10">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="N10">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O10">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P10">
-        <v>97.22598138543746</v>
+        <v>66.08100594463146</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.344350953054201</v>
+        <v>0.9137070364789502</v>
       </c>
       <c r="C11">
-        <v>34.26442760491248</v>
+        <v>23.28830022577434</v>
       </c>
       <c r="D11">
-        <v>0.007133902983519241</v>
+        <v>0.004848657516693041</v>
       </c>
       <c r="E11">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="F11">
-        <v>1.000330947272779</v>
+        <v>0.6798890001560038</v>
       </c>
       <c r="G11">
-        <v>6.759812487865697</v>
+        <v>4.594401648921317</v>
       </c>
       <c r="H11">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I11">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J11">
-        <v>0.7924270573507791</v>
+        <v>0.5385841967477097</v>
       </c>
       <c r="K11">
-        <v>3.990954407246023</v>
+        <v>2.71250830438497</v>
       </c>
       <c r="L11">
-        <v>0.9276618048177596</v>
+        <v>0.6304983952360658</v>
       </c>
       <c r="M11">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="N11">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O11">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P11">
-        <v>66.28251497088915</v>
+        <v>45.04984370846874</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.8260249043970641</v>
+        <v>0.5614194461199002</v>
       </c>
       <c r="C12">
-        <v>21.05348344661515</v>
+        <v>14.30929618777143</v>
       </c>
       <c r="D12">
-        <v>0.007133902983519241</v>
+        <v>0.004848657516693041</v>
       </c>
       <c r="E12">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="F12">
-        <v>0.5626861578409382</v>
+        <v>0.3824375625877522</v>
       </c>
       <c r="G12">
-        <v>3.802394524424455</v>
+        <v>2.58435092751824</v>
       </c>
       <c r="H12">
-        <v>0.1368099480257582</v>
+        <v>0.09298480570676908</v>
       </c>
       <c r="I12">
-        <v>3.855838254811339</v>
+        <v>2.620674710678612</v>
       </c>
       <c r="J12">
-        <v>0.4428268849901412</v>
+        <v>0.3009735217119556</v>
       </c>
       <c r="K12">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="L12">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M12">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="N12">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O12">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P12">
-        <v>40.92096553854834</v>
+        <v>27.81250987113094</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.5860930585522403</v>
+        <v>0.3983463919254277</v>
       </c>
       <c r="C13">
-        <v>14.93817007298637</v>
+        <v>10.15293742813051</v>
       </c>
       <c r="D13">
-        <v>0.01070085447527886</v>
+        <v>0.007272986275039562</v>
       </c>
       <c r="E13">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="F13">
-        <v>0.6252068420454868</v>
+        <v>0.4249306250975024</v>
       </c>
       <c r="G13">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="H13">
-        <v>0.09120663201717216</v>
+        <v>0.06198987047117938</v>
       </c>
       <c r="I13">
-        <v>2.570558836540892</v>
+        <v>1.747116473785742</v>
       </c>
       <c r="J13">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K13">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L13">
-        <v>0.8503566544162796</v>
+        <v>0.5779568622997272</v>
       </c>
       <c r="M13">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="P13">
-        <v>35.76079701435932</v>
+        <v>24.30532874461255</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.3864551104828834</v>
+        <v>0.2626596521758292</v>
       </c>
       <c r="C14">
-        <v>9.849855891875391</v>
+        <v>6.694593116673553</v>
       </c>
       <c r="D14">
-        <v>0.01141424477363078</v>
+        <v>0.007757852026708865</v>
       </c>
       <c r="E14">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="F14">
-        <v>0.3751241052272922</v>
+        <v>0.2549583750585014</v>
       </c>
       <c r="G14">
-        <v>2.534929682949637</v>
+        <v>1.722900618345494</v>
       </c>
       <c r="H14">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I14">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J14">
-        <v>0.5127469194622689</v>
+        <v>0.3484956567191065</v>
       </c>
       <c r="K14">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="L14">
-        <v>1.236882406423681</v>
+        <v>0.840664526981421</v>
       </c>
       <c r="M14">
-        <v>7.533606043753073</v>
+        <v>5.120321324278483</v>
       </c>
       <c r="N14">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O14">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P14">
-        <v>30.72772009002603</v>
+        <v>20.88452721175733</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2948780700840958</v>
+        <v>0.200418028437481</v>
       </c>
       <c r="C15">
-        <v>7.515766817971267</v>
+        <v>5.10819664352816</v>
       </c>
       <c r="D15">
-        <v>0.008560683580223088</v>
+        <v>0.005818389020031649</v>
       </c>
       <c r="E15">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="F15">
-        <v>0.6877275262500354</v>
+        <v>0.4674236876072527</v>
       </c>
       <c r="G15">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="H15">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I15">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J15">
-        <v>0.3962135286753896</v>
+        <v>0.2692920983738549</v>
       </c>
       <c r="K15">
-        <v>1.995477203623012</v>
+        <v>1.356254152192485</v>
       </c>
       <c r="L15">
-        <v>1.08227210562072</v>
+        <v>0.7355814611087435</v>
       </c>
       <c r="M15">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="N15">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O15">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P15">
-        <v>28.58087959560866</v>
+        <v>19.42539686972082</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2692364987724354</v>
+        <v>0.1829903737907435</v>
       </c>
       <c r="C16">
-        <v>6.862221877278112</v>
+        <v>4.664005631047448</v>
       </c>
       <c r="D16">
-        <v>0.00321025634258366</v>
+        <v>0.002181895882511868</v>
       </c>
       <c r="E16">
-        <v>1.161153990187591</v>
+        <v>0.7891946436008044</v>
       </c>
       <c r="F16">
-        <v>0.8127688946591326</v>
+        <v>0.5524098126267534</v>
       </c>
       <c r="G16">
-        <v>5.492347646390878</v>
+        <v>3.73295133974857</v>
       </c>
       <c r="H16">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I16">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J16">
-        <v>0.3729068505180137</v>
+        <v>0.2534513867048047</v>
       </c>
       <c r="K16">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="L16">
-        <v>0.9276618048177596</v>
+        <v>0.6304983952360658</v>
       </c>
       <c r="M16">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="N16">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O16">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P16">
-        <v>25.00558444432554</v>
+        <v>16.99539722580734</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.5421360791608226</v>
+        <v>0.3684704125310208</v>
       </c>
       <c r="C17">
-        <v>13.81780731751239</v>
+        <v>9.391467121020709</v>
       </c>
       <c r="D17">
-        <v>0.004637036939287507</v>
+        <v>0.003151627385850476</v>
       </c>
       <c r="E17">
-        <v>1.677222430270965</v>
+        <v>1.139947818534495</v>
       </c>
       <c r="F17">
-        <v>1.250413684090974</v>
+        <v>0.8498612501950048</v>
       </c>
       <c r="G17">
-        <v>8.449765609832122</v>
+        <v>5.743002061151644</v>
       </c>
       <c r="H17">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I17">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J17">
-        <v>0.8623470918229067</v>
+        <v>0.5861063317548612</v>
       </c>
       <c r="K17">
-        <v>4.343097443179496</v>
+        <v>2.951847272418938</v>
       </c>
       <c r="L17">
-        <v>1.39149270722664</v>
+        <v>0.9457475928540987</v>
       </c>
       <c r="M17">
-        <v>8.475306799222206</v>
+        <v>5.760361489813294</v>
       </c>
       <c r="N17">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O17">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P17">
-        <v>42.87978843339688</v>
+        <v>29.14385140674184</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.19416460680019</v>
+        <v>0.8116307735480596</v>
       </c>
       <c r="C18">
-        <v>30.43652152370971</v>
+        <v>20.6866100098159</v>
       </c>
       <c r="D18">
-        <v>0.002853561193407696</v>
+        <v>0.001939463006677216</v>
       </c>
       <c r="E18">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="F18">
-        <v>2.000661894545558</v>
+        <v>1.359778000312008</v>
       </c>
       <c r="G18">
-        <v>13.51962497573139</v>
+        <v>9.188803297842634</v>
       </c>
       <c r="H18">
-        <v>0.7296530561373773</v>
+        <v>0.495918963769435</v>
       </c>
       <c r="I18">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="J18">
-        <v>1.981067643376947</v>
+        <v>1.346460491869275</v>
       </c>
       <c r="K18">
-        <v>9.977386018115057</v>
+        <v>6.781270760962425</v>
       </c>
       <c r="L18">
-        <v>2.551069963248839</v>
+        <v>1.733870586899182</v>
       </c>
       <c r="M18">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="N18">
-        <v>0.04372023483079239</v>
+        <v>0.02971507262344798</v>
       </c>
       <c r="O18">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="P18">
-        <v>100.2623527804531</v>
+        <v>68.14471847645675</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.102608847556162</v>
+        <v>1.429067681032472</v>
       </c>
       <c r="C19">
-        <v>53.59068513683859</v>
+        <v>36.42366302341819</v>
       </c>
       <c r="D19">
-        <v>0.004993732088463468</v>
+        <v>0.003394060261685129</v>
       </c>
       <c r="E19">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="F19">
-        <v>3.688720368068372</v>
+        <v>2.507090688075265</v>
       </c>
       <c r="G19">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="H19">
-        <v>1.504909428283341</v>
+        <v>1.02283286277446</v>
       </c>
       <c r="I19">
-        <v>42.41422080292472</v>
+        <v>28.82742181746474</v>
       </c>
       <c r="J19">
-        <v>3.356161654662122</v>
+        <v>2.281062480343243</v>
       </c>
       <c r="K19">
-        <v>16.90286572480669</v>
+        <v>11.48827046563046</v>
       </c>
       <c r="L19">
-        <v>4.561003873687317</v>
+        <v>3.09995044324399</v>
       </c>
       <c r="M19">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="N19">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O19">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P19">
-        <v>185.0883216107519</v>
+        <v>125.7978814546982</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>2.848045956402294</v>
+        <v>1.935714498262626</v>
       </c>
       <c r="C20">
-        <v>72.59017019841815</v>
+        <v>49.33693031482167</v>
       </c>
       <c r="D20">
-        <v>0.00535042723763943</v>
+        <v>0.003636493137519781</v>
       </c>
       <c r="E20">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="F20">
-        <v>3.25107557863653</v>
+        <v>2.209639250507013</v>
       </c>
       <c r="G20">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="H20">
-        <v>1.307295058912801</v>
+        <v>0.8885214767535708</v>
       </c>
       <c r="I20">
-        <v>36.84467665708613</v>
+        <v>25.04200279092897</v>
       </c>
       <c r="J20">
-        <v>3.262934942032619</v>
+        <v>2.217699633667042</v>
       </c>
       <c r="K20">
-        <v>16.43334167689539</v>
+        <v>11.16915184158517</v>
       </c>
       <c r="L20">
-        <v>3.942562670475479</v>
+        <v>2.67961817975328</v>
       </c>
       <c r="M20">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="N20">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O20">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P20">
-        <v>190.8524013326362</v>
+        <v>129.7155193220617</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.258289816234101</v>
+        <v>1.534878441387665</v>
       </c>
       <c r="C21">
-        <v>57.55863656247558</v>
+        <v>39.12053702776534</v>
       </c>
       <c r="D21">
-        <v>0.005707122386815392</v>
+        <v>0.003878926013354433</v>
       </c>
       <c r="E21">
-        <v>2.064273760333495</v>
+        <v>1.403012699734763</v>
       </c>
       <c r="F21">
-        <v>1.625537789318265</v>
+        <v>1.104819625253507</v>
       </c>
       <c r="G21">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="H21">
-        <v>0.547239792103033</v>
+        <v>0.3719392228270763</v>
       </c>
       <c r="I21">
-        <v>15.42335301924535</v>
+        <v>10.48269884271445</v>
       </c>
       <c r="J21">
-        <v>2.563734597311344</v>
+        <v>1.742478283595533</v>
       </c>
       <c r="K21">
-        <v>12.91191131756067</v>
+        <v>8.775762161245488</v>
       </c>
       <c r="L21">
-        <v>2.86029056485476</v>
+        <v>1.944036718644537</v>
       </c>
       <c r="M21">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="N21">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O21">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P21">
-        <v>127.2047062772642</v>
+        <v>86.45646803367747</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>2.674049579644597</v>
+        <v>1.817455413159765</v>
       </c>
       <c r="C22">
-        <v>68.1554009580003</v>
+        <v>46.3227770158454</v>
       </c>
       <c r="D22">
-        <v>0.0178347574587981</v>
+        <v>0.0121216437917326</v>
       </c>
       <c r="E22">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="F22">
-        <v>5.064175420568444</v>
+        <v>3.441938063289771</v>
       </c>
       <c r="G22">
-        <v>34.22155071982009</v>
+        <v>23.25915834766416</v>
       </c>
       <c r="H22">
-        <v>0.562440897439228</v>
+        <v>0.3822708679056062</v>
       </c>
       <c r="I22">
-        <v>15.85177949200217</v>
+        <v>10.77388492167874</v>
       </c>
       <c r="J22">
-        <v>4.847789056734178</v>
+        <v>3.294868027162462</v>
       </c>
       <c r="K22">
-        <v>24.41525049138744</v>
+        <v>16.59416845035511</v>
       </c>
       <c r="L22">
-        <v>5.179445076899157</v>
+        <v>3.520282706734701</v>
       </c>
       <c r="M22">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="N22">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O22">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P22">
-        <v>199.9671199256926</v>
+        <v>135.9104660322793</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.402981540064186</v>
+        <v>1.633220206894255</v>
       </c>
       <c r="C23">
-        <v>61.24649729924414</v>
+        <v>41.62704345533507</v>
       </c>
       <c r="D23">
-        <v>0.01854814775715003</v>
+        <v>0.01260650954340191</v>
       </c>
       <c r="E23">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="F23">
-        <v>4.126365157500214</v>
+        <v>2.804542125643517</v>
       </c>
       <c r="G23">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="H23">
-        <v>0.3496254227324931</v>
+        <v>0.2376278368061875</v>
       </c>
       <c r="I23">
-        <v>9.853808873406754</v>
+        <v>6.697279816178675</v>
       </c>
       <c r="J23">
-        <v>5.244002585409567</v>
+        <v>3.564160125536317</v>
       </c>
       <c r="K23">
-        <v>26.41072769501044</v>
+        <v>17.95042260254759</v>
       </c>
       <c r="L23">
-        <v>3.942562670475479</v>
+        <v>2.67961817975328</v>
       </c>
       <c r="M23">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="N23">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O23">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P23">
-        <v>173.4260707226933</v>
+        <v>117.8714685835701</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.522031692582609</v>
+        <v>1.714134317754108</v>
       </c>
       <c r="C24">
-        <v>64.28081309531944</v>
+        <v>43.68935887042411</v>
       </c>
       <c r="D24">
-        <v>0.01854814775715003</v>
+        <v>0.01260650954340191</v>
       </c>
       <c r="E24">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="F24">
-        <v>3.688720368068372</v>
+        <v>2.507090688075265</v>
       </c>
       <c r="G24">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="H24">
-        <v>0.3344243173962979</v>
+        <v>0.2272961917276577</v>
       </c>
       <c r="I24">
-        <v>9.425382400649941</v>
+        <v>6.406093737214384</v>
       </c>
       <c r="J24">
-        <v>4.894402413048931</v>
+        <v>3.326549450500563</v>
       </c>
       <c r="K24">
-        <v>24.65001251534309</v>
+        <v>16.75372776237775</v>
       </c>
       <c r="L24">
-        <v>3.478731768066599</v>
+        <v>2.364368982135248</v>
       </c>
       <c r="M24">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="N24">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O24">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P24">
-        <v>168.5659636525767</v>
+        <v>114.5682284453326</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.544010182278318</v>
+        <v>1.729072307451311</v>
       </c>
       <c r="C25">
-        <v>64.84099447305643</v>
+        <v>44.07009402397898</v>
       </c>
       <c r="D25">
-        <v>0.01426780596703848</v>
+        <v>0.009697315033386082</v>
       </c>
       <c r="E25">
-        <v>5.160684400833739</v>
+        <v>3.507531749336908</v>
       </c>
       <c r="F25">
-        <v>3.876282420682018</v>
+        <v>2.634569875604515</v>
       </c>
       <c r="G25">
-        <v>26.19427339047958</v>
+        <v>17.8033063895701</v>
       </c>
       <c r="H25">
-        <v>0.3192232120601024</v>
+        <v>0.2169645466491278</v>
       </c>
       <c r="I25">
-        <v>8.996955927893124</v>
+        <v>6.114907658250096</v>
       </c>
       <c r="J25">
-        <v>3.868908574124391</v>
+        <v>2.629558137062349</v>
       </c>
       <c r="K25">
-        <v>19.48524798831882</v>
+        <v>13.24342289787956</v>
       </c>
       <c r="L25">
-        <v>3.246816316862161</v>
+        <v>2.206744383326231</v>
       </c>
       <c r="M25">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="N25">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O25">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P25">
-        <v>160.0376327237476</v>
+        <v>108.7718283599316</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.617271814597349</v>
+        <v>1.77886560644199</v>
       </c>
       <c r="C26">
-        <v>66.70826573217971</v>
+        <v>45.33921120249527</v>
       </c>
       <c r="D26">
-        <v>0.01533789141456637</v>
+        <v>0.01042461366089004</v>
       </c>
       <c r="E26">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="F26">
-        <v>3.438637631250179</v>
+        <v>2.337118438036264</v>
       </c>
       <c r="G26">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="H26">
-        <v>0.1824132640343443</v>
+        <v>0.1239797409423588</v>
       </c>
       <c r="I26">
-        <v>5.141117673081784</v>
+        <v>3.494232947571485</v>
       </c>
       <c r="J26">
-        <v>4.94101576936368</v>
+        <v>3.358230873838663</v>
       </c>
       <c r="K26">
-        <v>24.88477453929874</v>
+        <v>16.9132870744004</v>
       </c>
       <c r="L26">
-        <v>4.329088422482879</v>
+        <v>2.942325844434974</v>
       </c>
       <c r="M26">
-        <v>26.36762115313575</v>
+        <v>17.92112463497468</v>
       </c>
       <c r="N26">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O26">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P26">
-        <v>169.3692803817337</v>
+        <v>115.1142139607104</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.747311211963628</v>
+        <v>1.867248712150443</v>
       </c>
       <c r="C27">
-        <v>70.02267221712361</v>
+        <v>47.59189419436173</v>
       </c>
       <c r="D27">
-        <v>0.01212763507198271</v>
+        <v>0.008242717778378171</v>
       </c>
       <c r="E27">
-        <v>4.386581740708678</v>
+        <v>2.981401986936372</v>
       </c>
       <c r="F27">
-        <v>4.81409268375025</v>
+        <v>3.271965813250768</v>
       </c>
       <c r="G27">
-        <v>32.53159759785367</v>
+        <v>22.11055793543384</v>
       </c>
       <c r="H27">
-        <v>0.3648265280686886</v>
+        <v>0.2479594818847175</v>
       </c>
       <c r="I27">
-        <v>10.28223534616357</v>
+        <v>6.988465895142969</v>
       </c>
       <c r="J27">
-        <v>4.148588712012901</v>
+        <v>2.819646677090953</v>
       </c>
       <c r="K27">
-        <v>20.89382013205271</v>
+        <v>14.20077877001543</v>
       </c>
       <c r="L27">
-        <v>1.700713308832559</v>
+        <v>1.155913724599454</v>
       </c>
       <c r="M27">
-        <v>10.35870831016047</v>
+        <v>7.040441820882911</v>
       </c>
       <c r="N27">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O27">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P27">
-        <v>163.9775275901028</v>
+        <v>111.449633329086</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.659397253180791</v>
+        <v>1.80749675336163</v>
       </c>
       <c r="C28">
-        <v>67.7819467061756</v>
+        <v>46.06895358014212</v>
       </c>
       <c r="D28">
-        <v>0.01854814775715003</v>
+        <v>0.01260650954340191</v>
       </c>
       <c r="E28">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="F28">
-        <v>4.751571999545701</v>
+        <v>3.229472750741019</v>
       </c>
       <c r="G28">
-        <v>32.10910931736205</v>
+        <v>21.82340783237625</v>
       </c>
       <c r="H28">
-        <v>0.3344243173962979</v>
+        <v>0.2272961917276577</v>
       </c>
       <c r="I28">
-        <v>9.425382400649941</v>
+        <v>6.406093737214384</v>
       </c>
       <c r="J28">
-        <v>3.915521930439143</v>
+        <v>2.66123956040045</v>
       </c>
       <c r="K28">
-        <v>19.72001001227447</v>
+        <v>13.40298220990221</v>
       </c>
       <c r="L28">
-        <v>3.478731768066599</v>
+        <v>2.364368982135248</v>
       </c>
       <c r="M28">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="N28">
-        <v>0.2331745857642261</v>
+        <v>0.1584803873250558</v>
       </c>
       <c r="O28">
-        <v>3.685116080155988</v>
+        <v>2.504640983093422</v>
       </c>
       <c r="P28">
-        <v>176.0100912379073</v>
+        <v>119.6277344766341</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>2.924970670337275</v>
+        <v>1.987997462202839</v>
       </c>
       <c r="C29">
-        <v>74.55080502049761</v>
+        <v>50.66950335226377</v>
       </c>
       <c r="D29">
-        <v>0.01605128171291829</v>
+        <v>0.01090947941255934</v>
       </c>
       <c r="E29">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="F29">
-        <v>4.626530631136602</v>
+        <v>3.144486625721518</v>
       </c>
       <c r="G29">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="H29">
-        <v>0.4408320547496653</v>
+        <v>0.299617707277367</v>
       </c>
       <c r="I29">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="J29">
-        <v>3.892215252281768</v>
+        <v>2.6453988487314</v>
       </c>
       <c r="K29">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="L29">
-        <v>2.08723906083996</v>
+        <v>1.418621389281148</v>
       </c>
       <c r="M29">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="N29">
-        <v>0.3643352902566033</v>
+        <v>0.2476256051953998</v>
       </c>
       <c r="O29">
-        <v>5.757993875243733</v>
+        <v>3.913501536083472</v>
       </c>
       <c r="P29">
-        <v>176.4708327534505</v>
+        <v>119.9408839290098</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>3.66491315675948</v>
+        <v>2.490909782008691</v>
       </c>
       <c r="C30">
-        <v>93.41024473764281</v>
+        <v>63.48758685527854</v>
       </c>
       <c r="D30">
-        <v>0.007847293281871164</v>
+        <v>0.005333523268362346</v>
       </c>
       <c r="E30">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="F30">
-        <v>2.938472157613789</v>
+        <v>1.997173937958261</v>
       </c>
       <c r="G30">
-        <v>19.85694918310548</v>
+        <v>13.49605484370637</v>
       </c>
       <c r="H30">
-        <v>0.7296530561373773</v>
+        <v>0.495918963769435</v>
       </c>
       <c r="I30">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="J30">
-        <v>3.379468332819498</v>
+        <v>2.296903192012292</v>
       </c>
       <c r="K30">
-        <v>17.02024673678451</v>
+        <v>11.56805012164178</v>
       </c>
       <c r="L30">
-        <v>1.62340815843108</v>
+        <v>1.103372191663115</v>
       </c>
       <c r="M30">
-        <v>9.887857932425902</v>
+        <v>6.720421738115507</v>
       </c>
       <c r="N30">
-        <v>0.1894543509334337</v>
+        <v>0.1287653147016079</v>
       </c>
       <c r="O30">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="P30">
-        <v>179.1055190238476</v>
+        <v>121.7315855153086</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>3.813267962205515</v>
+        <v>2.591741212464816</v>
       </c>
       <c r="C31">
-        <v>97.19146903736753</v>
+        <v>66.05754914177407</v>
       </c>
       <c r="D31">
-        <v>0.0103441593261029</v>
+        <v>0.007030553399204909</v>
       </c>
       <c r="E31">
-        <v>3.74149619060446</v>
+        <v>2.542960518269258</v>
       </c>
       <c r="F31">
-        <v>3.688720368068372</v>
+        <v>2.507090688075265</v>
       </c>
       <c r="G31">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="H31">
-        <v>1.064077373533675</v>
+        <v>0.7232151554970929</v>
       </c>
       <c r="I31">
-        <v>29.98985309297707</v>
+        <v>20.38302552750032</v>
       </c>
       <c r="J31">
-        <v>2.58704127546872</v>
+        <v>1.758318995264583</v>
       </c>
       <c r="K31">
-        <v>13.02929232953849</v>
+        <v>8.855541817256814</v>
       </c>
       <c r="L31">
-        <v>1.468797857628119</v>
+        <v>0.9982891257904372</v>
       </c>
       <c r="M31">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="N31">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O31">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P31">
-        <v>191.4368980391596</v>
+        <v>130.1127807308745</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.016547710736063</v>
+        <v>2.050239085941187</v>
       </c>
       <c r="C32">
-        <v>76.88489409440172</v>
+        <v>52.25589982540921</v>
       </c>
       <c r="D32">
-        <v>0.007490598132695203</v>
+        <v>0.005091090392527693</v>
       </c>
       <c r="E32">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="F32">
-        <v>3.126034210227434</v>
+        <v>2.124653125487513</v>
       </c>
       <c r="G32">
-        <v>21.1244140245803</v>
+        <v>14.35750515287911</v>
       </c>
       <c r="H32">
-        <v>0.7144519508011817</v>
+        <v>0.485587318690905</v>
       </c>
       <c r="I32">
-        <v>20.13604421957032</v>
+        <v>13.68574571132164</v>
       </c>
       <c r="J32">
-        <v>1.817920896275317</v>
+        <v>1.235575510185923</v>
       </c>
       <c r="K32">
-        <v>9.15571893427029</v>
+        <v>6.222813168883166</v>
       </c>
       <c r="L32">
-        <v>1.159577256022199</v>
+        <v>0.7881229940450823</v>
       </c>
       <c r="M32">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="N32">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O32">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P32">
-        <v>149.1192473710539</v>
+        <v>101.3509941640096</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.525694774198561</v>
+        <v>1.716623982703641</v>
       </c>
       <c r="C33">
-        <v>64.37417665827562</v>
+        <v>43.7528147293499</v>
       </c>
       <c r="D33">
-        <v>0.01070085447527886</v>
+        <v>0.007272986275039562</v>
       </c>
       <c r="E33">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="F33">
-        <v>2.438306683977398</v>
+        <v>1.657229437880259</v>
       </c>
       <c r="G33">
-        <v>16.47704293917263</v>
+        <v>11.19885401924571</v>
       </c>
       <c r="H33">
-        <v>0.9728707415165028</v>
+        <v>0.6612252850259135</v>
       </c>
       <c r="I33">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="J33">
-        <v>1.165333907868793</v>
+        <v>0.7920355834525148</v>
       </c>
       <c r="K33">
-        <v>5.869050598891212</v>
+        <v>3.988982800566132</v>
       </c>
       <c r="L33">
-        <v>1.236882406423681</v>
+        <v>0.840664526981421</v>
       </c>
       <c r="M33">
-        <v>7.533606043753073</v>
+        <v>5.120321324278483</v>
       </c>
       <c r="N33">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O33">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P33">
-        <v>134.1383663322343</v>
+        <v>91.16902762712743</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>2.075135735436526</v>
+        <v>1.410395193910969</v>
       </c>
       <c r="C34">
-        <v>52.89045841466737</v>
+        <v>35.94774408147456</v>
       </c>
       <c r="D34">
-        <v>0.007133902983519241</v>
+        <v>0.004848657516693041</v>
       </c>
       <c r="E34">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="F34">
-        <v>1.625537789318265</v>
+        <v>1.104819625253507</v>
       </c>
       <c r="G34">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="H34">
-        <v>0.4712342654220559</v>
+        <v>0.3202809974344267</v>
       </c>
       <c r="I34">
-        <v>13.28122065546128</v>
+        <v>9.026768447892996</v>
       </c>
       <c r="J34">
-        <v>0.7458137010360274</v>
+        <v>0.5069027734096093</v>
       </c>
       <c r="K34">
-        <v>3.756192383290375</v>
+        <v>2.552948992362325</v>
       </c>
       <c r="L34">
-        <v>0.6184412032118403</v>
+        <v>0.4203322634907105</v>
       </c>
       <c r="M34">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="N34">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O34">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P34">
-        <v>93.78258123238247</v>
+        <v>63.74065059165525</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.467064187188576</v>
+        <v>0.9971108122883366</v>
       </c>
       <c r="C35">
-        <v>37.39210696394399</v>
+        <v>25.41407149978918</v>
       </c>
       <c r="D35">
-        <v>0.006777207834343279</v>
+        <v>0.004606224640858389</v>
       </c>
       <c r="E35">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="F35">
-        <v>1.563017105113717</v>
+        <v>1.062326562743756</v>
       </c>
       <c r="G35">
-        <v>10.56220701229015</v>
+        <v>7.178752576439557</v>
       </c>
       <c r="H35">
-        <v>0.258418790715321</v>
+        <v>0.1756379663350082</v>
       </c>
       <c r="I35">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="J35">
-        <v>0.5593602757770205</v>
+        <v>0.3801770800572071</v>
       </c>
       <c r="K35">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="L35">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M35">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N35">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O35">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P35">
-        <v>71.73158598998141</v>
+        <v>48.75338147969342</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.9230965672197783</v>
+        <v>0.6273955672825486</v>
       </c>
       <c r="C36">
-        <v>23.52761786495353</v>
+        <v>15.99087644930555</v>
       </c>
       <c r="D36">
-        <v>0.01248433022115867</v>
+        <v>0.008485150654212821</v>
       </c>
       <c r="E36">
-        <v>4.515598850729521</v>
+        <v>3.069090280669794</v>
       </c>
       <c r="F36">
-        <v>0.6252068420454868</v>
+        <v>0.4249306250975024</v>
       </c>
       <c r="G36">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="H36">
-        <v>0.1368099480257582</v>
+        <v>0.09298480570676908</v>
       </c>
       <c r="I36">
-        <v>3.855838254811339</v>
+        <v>2.620674710678612</v>
       </c>
       <c r="J36">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K36">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L36">
-        <v>0.69574635361332</v>
+        <v>0.4728737964270494</v>
       </c>
       <c r="M36">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="N36">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O36">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P36">
-        <v>45.81358218547108</v>
+        <v>31.13784560056311</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.7014801294547126</v>
+        <v>0.4767708378357464</v>
       </c>
       <c r="C37">
-        <v>17.87912230610557</v>
+        <v>12.1517969842937</v>
       </c>
       <c r="D37">
-        <v>0.01498119626539041</v>
+        <v>0.01018218078505539</v>
       </c>
       <c r="E37">
-        <v>5.418718620875426</v>
+        <v>3.682908336803754</v>
       </c>
       <c r="F37">
-        <v>0.6252068420454868</v>
+        <v>0.4249306250975024</v>
       </c>
       <c r="G37">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="H37">
-        <v>0.06080442134478142</v>
+        <v>0.04132658031411959</v>
       </c>
       <c r="I37">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="J37">
-        <v>0.3962135286753896</v>
+        <v>0.2692920983738549</v>
       </c>
       <c r="K37">
-        <v>1.995477203623012</v>
+        <v>1.356254152192485</v>
       </c>
       <c r="L37">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M37">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="N37">
-        <v>0.05829364644105652</v>
+        <v>0.03962009683126396</v>
       </c>
       <c r="O37">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="P37">
-        <v>39.49172089217362</v>
+        <v>26.84110364177126</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3937812737147865</v>
+        <v>0.267638982074897</v>
       </c>
       <c r="C38">
-        <v>10.03658301778772</v>
+        <v>6.821504834525186</v>
       </c>
       <c r="D38">
-        <v>0.0103441593261029</v>
+        <v>0.007030553399204909</v>
       </c>
       <c r="E38">
-        <v>3.74149619060446</v>
+        <v>2.542960518269258</v>
       </c>
       <c r="F38">
-        <v>0.5001654736363895</v>
+        <v>0.3399445000780019</v>
       </c>
       <c r="G38">
-        <v>3.379906243932849</v>
+        <v>2.297200824460659</v>
       </c>
       <c r="H38">
-        <v>0.03040221067239071</v>
+        <v>0.0206632901570598</v>
       </c>
       <c r="I38">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="J38">
-        <v>0.4661335631475171</v>
+        <v>0.3168142333810059</v>
       </c>
       <c r="K38">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="L38">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M38">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="N38">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P38">
-        <v>27.73462693249282</v>
+        <v>18.85022934284006</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2637418763485081</v>
+        <v>0.1792558763664425</v>
       </c>
       <c r="C39">
-        <v>6.722176532843865</v>
+        <v>4.568821842658726</v>
       </c>
       <c r="D39">
-        <v>0.007490598132695203</v>
+        <v>0.005091090392527693</v>
       </c>
       <c r="E39">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="F39">
-        <v>0.7502482104545843</v>
+        <v>0.5099167501170029</v>
       </c>
       <c r="G39">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="H39">
-        <v>0.01520110533619536</v>
+        <v>0.0103316450785299</v>
       </c>
       <c r="I39">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="J39">
-        <v>0.4428268849901412</v>
+        <v>0.3009735217119556</v>
       </c>
       <c r="K39">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="L39">
-        <v>0.7730515040147998</v>
+        <v>0.5254153293633883</v>
       </c>
       <c r="M39">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="N39">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O39">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P39">
-        <v>24.36601803275893</v>
+        <v>16.56070691728606</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2655734171564841</v>
+        <v>0.1805007088412095</v>
       </c>
       <c r="C40">
-        <v>6.768858314321946</v>
+        <v>4.600549772121635</v>
       </c>
       <c r="D40">
-        <v>0.003923646640935582</v>
+        <v>0.002666761634181173</v>
       </c>
       <c r="E40">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="F40">
-        <v>0.6877275262500354</v>
+        <v>0.4674236876072527</v>
       </c>
       <c r="G40">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="H40">
-        <v>0.04560331600858608</v>
+        <v>0.03099493523558969</v>
       </c>
       <c r="I40">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="J40">
-        <v>0.4894402413048929</v>
+        <v>0.3326549450500562</v>
       </c>
       <c r="K40">
-        <v>2.465001251534308</v>
+        <v>1.675372776237776</v>
       </c>
       <c r="L40">
-        <v>1.00496695521924</v>
+        <v>0.6830399281724047</v>
       </c>
       <c r="M40">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="N40">
-        <v>0.02914682322052826</v>
+        <v>0.01981004841563198</v>
       </c>
       <c r="O40">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="P40">
-        <v>25.69377462613322</v>
+        <v>17.46313536377261</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.4963475589614285</v>
+        <v>0.3373496006618468</v>
       </c>
       <c r="C41">
-        <v>12.65076278056032</v>
+        <v>8.59826888444802</v>
       </c>
       <c r="D41">
-        <v>0.003923646640935582</v>
+        <v>0.002666761634181173</v>
       </c>
       <c r="E41">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="F41">
-        <v>0.8752895788636813</v>
+        <v>0.5949028751365035</v>
       </c>
       <c r="G41">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="H41">
-        <v>0.07600552668097676</v>
+        <v>0.05165822539264948</v>
       </c>
       <c r="I41">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="J41">
-        <v>1.188640586026169</v>
+        <v>0.8078762951215651</v>
       </c>
       <c r="K41">
-        <v>5.986431610869034</v>
+        <v>4.068762456577455</v>
       </c>
       <c r="L41">
-        <v>1.5461030080296</v>
+        <v>1.050830658726777</v>
       </c>
       <c r="M41">
-        <v>9.417007554691338</v>
+        <v>6.400401655348105</v>
       </c>
       <c r="N41">
-        <v>0.01457341161026413</v>
+        <v>0.00990502420781599</v>
       </c>
       <c r="O41">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="P41">
-        <v>41.96156151883935</v>
+        <v>28.51976556739351</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.289404728814928</v>
+        <v>0.8763620622359409</v>
       </c>
       <c r="C42">
-        <v>32.86397416057</v>
+        <v>22.33646234188712</v>
       </c>
       <c r="D42">
-        <v>0.003923646640935582</v>
+        <v>0.002666761634181173</v>
       </c>
       <c r="E42">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="F42">
-        <v>1.625537789318265</v>
+        <v>1.104819625253507</v>
       </c>
       <c r="G42">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="H42">
-        <v>0.6384464241202048</v>
+        <v>0.4339290932982556</v>
       </c>
       <c r="I42">
-        <v>17.99391185578625</v>
+        <v>12.22981531650019</v>
       </c>
       <c r="J42">
-        <v>2.353974493894961</v>
+        <v>1.59991187857408</v>
       </c>
       <c r="K42">
-        <v>11.85548220976025</v>
+        <v>8.057745257143587</v>
       </c>
       <c r="L42">
-        <v>2.86029056485476</v>
+        <v>1.944036718644537</v>
       </c>
       <c r="M42">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="N42">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O42">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P42">
-        <v>103.2694386859107</v>
+        <v>70.18852671333943</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.919454766758588</v>
+        <v>1.304584433555776</v>
       </c>
       <c r="C43">
-        <v>48.92250698903035</v>
+        <v>33.25087007712741</v>
       </c>
       <c r="D43">
-        <v>0.00178347574587981</v>
+        <v>0.00121216437917326</v>
       </c>
       <c r="E43">
-        <v>0.6450855501042174</v>
+        <v>0.4384414686671135</v>
       </c>
       <c r="F43">
-        <v>2.313265315568301</v>
+        <v>1.572243312860759</v>
       </c>
       <c r="G43">
-        <v>15.63206637818942</v>
+        <v>10.62455381313055</v>
       </c>
       <c r="H43">
-        <v>1.246490637568019</v>
+        <v>0.8471948964394518</v>
       </c>
       <c r="I43">
-        <v>35.13097076605887</v>
+        <v>23.87725847507181</v>
       </c>
       <c r="J43">
-        <v>2.86672141335723</v>
+        <v>1.948407535293186</v>
       </c>
       <c r="K43">
-        <v>14.43786447327238</v>
+        <v>9.812897689392685</v>
       </c>
       <c r="L43">
-        <v>5.72058112970952</v>
+        <v>3.888073437289074</v>
       </c>
       <c r="M43">
-        <v>34.84292795235795</v>
+        <v>23.68148612478798</v>
       </c>
       <c r="N43">
-        <v>0.1311607044923771</v>
+        <v>0.08914521787034392</v>
       </c>
       <c r="O43">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="P43">
-        <v>165.8837573473008</v>
+        <v>112.7452291988554</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.073325475783312</v>
+        <v>2.088828892658963</v>
       </c>
       <c r="C44">
-        <v>78.33202932022226</v>
+        <v>53.23946563875936</v>
       </c>
       <c r="D44">
-        <v>0.006063817535991355</v>
+        <v>0.004121358889189086</v>
       </c>
       <c r="E44">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="F44">
-        <v>2.938472157613789</v>
+        <v>1.997173937958261</v>
       </c>
       <c r="G44">
-        <v>19.85694918310548</v>
+        <v>13.49605484370637</v>
       </c>
       <c r="H44">
-        <v>1.398501690929973</v>
+        <v>0.9505113472247502</v>
       </c>
       <c r="I44">
-        <v>39.41523549362702</v>
+        <v>26.7891192647147</v>
       </c>
       <c r="J44">
-        <v>3.402775010976875</v>
+        <v>2.312743903681343</v>
       </c>
       <c r="K44">
-        <v>17.13762774876234</v>
+        <v>11.6478297776531</v>
       </c>
       <c r="L44">
-        <v>4.174478121679919</v>
+        <v>2.837242778562296</v>
       </c>
       <c r="M44">
-        <v>25.42592039766662</v>
+        <v>17.28108446943988</v>
       </c>
       <c r="N44">
-        <v>0.2623214089847543</v>
+        <v>0.1782904357406878</v>
       </c>
       <c r="O44">
-        <v>4.145755590175487</v>
+        <v>2.817721105980099</v>
       </c>
       <c r="P44">
-        <v>201.7627462874182</v>
+        <v>137.1308887484372</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>3.119113995982704</v>
+        <v>2.119949704528137</v>
       </c>
       <c r="C45">
-        <v>79.49907385717435</v>
+        <v>54.03266387533203</v>
       </c>
       <c r="D45">
-        <v>0.01248433022115867</v>
+        <v>0.008485150654212821</v>
       </c>
       <c r="E45">
-        <v>4.515598850729521</v>
+        <v>3.069090280669794</v>
       </c>
       <c r="F45">
-        <v>3.563678999659275</v>
+        <v>2.422104563055764</v>
       </c>
       <c r="G45">
-        <v>24.08183198802155</v>
+        <v>16.36755587428219</v>
       </c>
       <c r="H45">
-        <v>0.7296530561373773</v>
+        <v>0.495918963769435</v>
       </c>
       <c r="I45">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="J45">
-        <v>3.892215252281768</v>
+        <v>2.6453988487314</v>
       </c>
       <c r="K45">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="L45">
-        <v>4.715614174490279</v>
+        <v>3.205033509116668</v>
       </c>
       <c r="M45">
-        <v>28.72187304180859</v>
+        <v>19.52122504881171</v>
       </c>
       <c r="N45">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O45">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P45">
-        <v>194.9773825720904</v>
+        <v>132.5191208483374</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.677712661260548</v>
+        <v>1.819945078109299</v>
       </c>
       <c r="C46">
-        <v>68.24876452095647</v>
+        <v>46.38623287477125</v>
       </c>
       <c r="D46">
-        <v>0.01926153805550195</v>
+        <v>0.01309137529507121</v>
       </c>
       <c r="E46">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="F46">
-        <v>5.501820210000283</v>
+        <v>3.739389500858021</v>
       </c>
       <c r="G46">
-        <v>37.17896868326135</v>
+        <v>25.26920906906724</v>
       </c>
       <c r="H46">
-        <v>0.6688486347925957</v>
+        <v>0.4545923834553154</v>
       </c>
       <c r="I46">
-        <v>18.85076480129988</v>
+        <v>12.81218747442877</v>
       </c>
       <c r="J46">
-        <v>4.265122102799782</v>
+        <v>2.898850235436203</v>
       </c>
       <c r="K46">
-        <v>21.48072519194183</v>
+        <v>14.59967705007204</v>
       </c>
       <c r="L46">
-        <v>5.0248347760962</v>
+        <v>3.415199640862023</v>
       </c>
       <c r="M46">
-        <v>30.60527455274685</v>
+        <v>20.80130537988133</v>
       </c>
       <c r="N46">
-        <v>0.116587292882113</v>
+        <v>0.07924019366252792</v>
       </c>
       <c r="O46">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="P46">
-        <v>203.448166947297</v>
+        <v>138.2764086090506</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.992716399077618</v>
+        <v>1.354377732546455</v>
       </c>
       <c r="C47">
-        <v>50.78977824815365</v>
+        <v>34.51998725564374</v>
       </c>
       <c r="D47">
-        <v>0.01462450111621445</v>
+        <v>0.009939747909220736</v>
       </c>
       <c r="E47">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="F47">
-        <v>3.188554894431982</v>
+        <v>2.167146187997262</v>
       </c>
       <c r="G47">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="H47">
-        <v>0.2888210013877117</v>
+        <v>0.1963012564920681</v>
       </c>
       <c r="I47">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="J47">
-        <v>3.775681861494887</v>
+        <v>2.566195290386148</v>
       </c>
       <c r="K47">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="L47">
-        <v>3.401426617665118</v>
+        <v>2.311827449198909</v>
       </c>
       <c r="M47">
-        <v>20.71741662032094</v>
+        <v>14.08088364176582</v>
       </c>
       <c r="N47">
-        <v>0.07286705805132064</v>
+        <v>0.04952512103907997</v>
       </c>
       <c r="O47">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="P47">
-        <v>139.3859167154617</v>
+        <v>94.73559906335822</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.091619602708308</v>
+        <v>1.421598686183871</v>
       </c>
       <c r="C48">
-        <v>53.31059444797011</v>
+        <v>36.23329544664074</v>
       </c>
       <c r="D48">
-        <v>0.01462450111621445</v>
+        <v>0.009939747909220736</v>
       </c>
       <c r="E48">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="F48">
-        <v>2.81343078920469</v>
+        <v>1.912187812938761</v>
       </c>
       <c r="G48">
-        <v>19.01197262212227</v>
+        <v>12.9217546375912</v>
       </c>
       <c r="H48">
-        <v>0.2888210013877117</v>
+        <v>0.1963012564920681</v>
       </c>
       <c r="I48">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="J48">
-        <v>3.54261507992113</v>
+        <v>2.407788173695645</v>
       </c>
       <c r="K48">
-        <v>17.84191382062928</v>
+        <v>12.12650771372104</v>
       </c>
       <c r="L48">
-        <v>3.014900865657719</v>
+        <v>2.049119784517214</v>
       </c>
       <c r="M48">
-        <v>18.36316473164811</v>
+        <v>12.4807832279288</v>
       </c>
       <c r="N48">
-        <v>0.1457341161026413</v>
+        <v>0.09905024207815993</v>
       </c>
       <c r="O48">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="P48">
-        <v>136.1723936217998</v>
+        <v>92.55148288752196</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.109935010788065</v>
+        <v>1.43404701093154</v>
       </c>
       <c r="C49">
-        <v>53.77741226275092</v>
+        <v>36.55057474126981</v>
       </c>
       <c r="D49">
-        <v>0.01141424477363078</v>
+        <v>0.007757852026708865</v>
       </c>
       <c r="E49">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="F49">
-        <v>3.000992841818337</v>
+        <v>2.039667000468012</v>
       </c>
       <c r="G49">
-        <v>20.27943746359709</v>
+        <v>13.78320494676395</v>
       </c>
       <c r="H49">
-        <v>0.2736198960515165</v>
+        <v>0.1859696114135382</v>
       </c>
       <c r="I49">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="J49">
-        <v>2.796801378885101</v>
+        <v>1.900885400286035</v>
       </c>
       <c r="K49">
-        <v>14.0857214373389</v>
+        <v>9.573558721358717</v>
       </c>
       <c r="L49">
-        <v>2.78298541445328</v>
+        <v>1.891495185708197</v>
       </c>
       <c r="M49">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="N49">
-        <v>0.1020138812718489</v>
+        <v>0.06933516945471195</v>
       </c>
       <c r="O49">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="P49">
-        <v>129.623409745531</v>
+        <v>88.10037387023793</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.858534884827074</v>
+        <v>2.734490426307796</v>
       </c>
       <c r="C2">
-        <v>47.36979868812139</v>
+        <v>69.69589974677703</v>
       </c>
       <c r="D2">
-        <v>0.0116367780400633</v>
+        <v>0.01712136716044618</v>
       </c>
       <c r="E2">
-        <v>4.209038099204289</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="F2">
-        <v>2.719556000624015</v>
+        <v>4.001323789091116</v>
       </c>
       <c r="G2">
-        <v>18.37760659568527</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="H2">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I2">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J2">
-        <v>3.18398304547911</v>
+        <v>4.684642309632546</v>
       </c>
       <c r="K2">
-        <v>16.03571085827585</v>
+        <v>23.59358340754267</v>
       </c>
       <c r="L2">
-        <v>1.78641211983552</v>
+        <v>2.628375113650319</v>
       </c>
       <c r="M2">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="N2">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O2">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P2">
-        <v>114.0240650304201</v>
+        <v>167.7653278073348</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.919531676090656</v>
+        <v>2.824235925898608</v>
       </c>
       <c r="C3">
-        <v>48.92446723180389</v>
+        <v>71.98330703920305</v>
       </c>
       <c r="D3">
-        <v>0.01284894241923656</v>
+        <v>0.01890484290632599</v>
       </c>
       <c r="E3">
-        <v>4.647479567871402</v>
+        <v>6.837906831104704</v>
       </c>
       <c r="F3">
-        <v>2.762049063133766</v>
+        <v>4.063844473295664</v>
       </c>
       <c r="G3">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="H3">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I3">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J3">
-        <v>3.073098063795757</v>
+        <v>4.521495562530917</v>
       </c>
       <c r="K3">
-        <v>15.47725326619659</v>
+        <v>22.7719163236979</v>
       </c>
       <c r="L3">
-        <v>1.418621389281148</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M3">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N3">
-        <v>0.1188602904937919</v>
+        <v>0.1748809393231696</v>
       </c>
       <c r="O3">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="P3">
-        <v>112.9653081946398</v>
+        <v>166.2075628953792</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.944428325585996</v>
+        <v>2.860866742058124</v>
       </c>
       <c r="C4">
-        <v>49.55902582106204</v>
+        <v>72.91694266876473</v>
       </c>
       <c r="D4">
-        <v>0.01187921091589795</v>
+        <v>0.01747806230962214</v>
       </c>
       <c r="E4">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="F4">
-        <v>2.804542125643517</v>
+        <v>4.126365157500214</v>
       </c>
       <c r="G4">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H4">
-        <v>0.1756379663350082</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I4">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J4">
-        <v>2.867168812098103</v>
+        <v>4.21850874648503</v>
       </c>
       <c r="K4">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="L4">
-        <v>1.418621389281148</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M4">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N4">
-        <v>0.1089552662859759</v>
+        <v>0.1603075277129054</v>
       </c>
       <c r="O4">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="P4">
-        <v>111.8916561029848</v>
+        <v>164.6278823686459</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.102522049881401</v>
+        <v>3.093472424671045</v>
       </c>
       <c r="C5">
-        <v>53.58847286285133</v>
+        <v>78.84552891648116</v>
       </c>
       <c r="D5">
-        <v>0.009939747909220736</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E5">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F5">
-        <v>2.932021313172767</v>
+        <v>4.31392721011386</v>
       </c>
       <c r="G5">
-        <v>19.81335711097318</v>
+        <v>29.15169135392082</v>
       </c>
       <c r="H5">
-        <v>0.299617707277367</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I5">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J5">
-        <v>2.819646677090953</v>
+        <v>4.148588712012901</v>
       </c>
       <c r="K5">
-        <v>14.20077877001543</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="L5">
-        <v>1.366079856344809</v>
+        <v>2.00993391043848</v>
       </c>
       <c r="M5">
-        <v>8.320522151952535</v>
+        <v>12.24210982109874</v>
       </c>
       <c r="N5">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O5">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P5">
-        <v>119.1570254370153</v>
+        <v>175.317529923658</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.400037011350701</v>
+        <v>3.531210677777247</v>
       </c>
       <c r="C6">
-        <v>61.1714480044863</v>
+        <v>90.00247468974285</v>
       </c>
       <c r="D6">
-        <v>0.00945488215755143</v>
+        <v>0.01391111081786252</v>
       </c>
       <c r="E6">
-        <v>3.419843455603485</v>
+        <v>5.031667290812894</v>
       </c>
       <c r="F6">
-        <v>2.677062938114264</v>
+        <v>3.938803104886567</v>
       </c>
       <c r="G6">
-        <v>18.09045649262769</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="H6">
-        <v>0.6612252850259135</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I6">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J6">
-        <v>2.376106750357545</v>
+        <v>3.496001723606378</v>
       </c>
       <c r="K6">
-        <v>11.96694840169839</v>
+        <v>17.60715179667363</v>
       </c>
       <c r="L6">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M6">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N6">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O6">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P6">
-        <v>127.7497990501455</v>
+        <v>187.96020742859</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.561865233070408</v>
+        <v>3.769310982814096</v>
       </c>
       <c r="C7">
-        <v>65.29607883466431</v>
+        <v>96.07110628189356</v>
       </c>
       <c r="D7">
-        <v>0.003636493137519781</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E7">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F7">
-        <v>1.827201687919261</v>
+        <v>2.688389420795594</v>
       </c>
       <c r="G7">
-        <v>12.34745443147603</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="H7">
-        <v>0.692220220261503</v>
+        <v>1.018474057525089</v>
       </c>
       <c r="I7">
-        <v>19.50946729060745</v>
+        <v>28.70457367470663</v>
       </c>
       <c r="J7">
-        <v>1.536549031897879</v>
+        <v>2.260747781265458</v>
       </c>
       <c r="K7">
-        <v>7.738626633098295</v>
+        <v>11.38595816184895</v>
       </c>
       <c r="L7">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M7">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N7">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O7">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P7">
-        <v>119.3361761227942</v>
+        <v>175.5811170315075</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.949407655485063</v>
+        <v>2.868192905290025</v>
       </c>
       <c r="C8">
-        <v>49.68593753891364</v>
+        <v>73.10366979467703</v>
       </c>
       <c r="D8">
-        <v>0.004606224640858389</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E8">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F8">
-        <v>2.507090688075265</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G8">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H8">
-        <v>0.4132658031411959</v>
+        <v>0.6080442134478141</v>
       </c>
       <c r="I8">
-        <v>11.64744315857161</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="J8">
-        <v>1.140531240171621</v>
+        <v>1.678080827331061</v>
       </c>
       <c r="K8">
-        <v>5.744135232815229</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="L8">
-        <v>0.6304983952360658</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M8">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N8">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O8">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P8">
-        <v>96.50398076289409</v>
+        <v>141.987763399598</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.552306096034402</v>
+        <v>2.283931387545761</v>
       </c>
       <c r="C9">
-        <v>39.56472804024607</v>
+        <v>58.21218150316875</v>
       </c>
       <c r="D9">
-        <v>0.004848657516693041</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E9">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F9">
-        <v>1.572243312860759</v>
+        <v>2.313265315568301</v>
       </c>
       <c r="G9">
-        <v>10.62455381313055</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="H9">
-        <v>0.7852050259682724</v>
+        <v>1.155284005550847</v>
       </c>
       <c r="I9">
-        <v>22.13014200128606</v>
+        <v>32.56041192951798</v>
       </c>
       <c r="J9">
-        <v>0.5227434850786598</v>
+        <v>0.7691203791934029</v>
       </c>
       <c r="K9">
-        <v>2.632728648373647</v>
+        <v>3.873573395268199</v>
       </c>
       <c r="L9">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M9">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N9">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O9">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P9">
-        <v>86.85846283196942</v>
+        <v>127.7961672911677</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.285911946434272</v>
+        <v>1.891981654638951</v>
       </c>
       <c r="C10">
-        <v>32.77495113518378</v>
+        <v>48.22228026685909</v>
       </c>
       <c r="D10">
-        <v>0.00242432875834652</v>
+        <v>0.003566951491759621</v>
       </c>
       <c r="E10">
-        <v>0.8768829373342271</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="F10">
-        <v>1.317284937802258</v>
+        <v>1.938141210341009</v>
       </c>
       <c r="G10">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="H10">
-        <v>0.3926025129841362</v>
+        <v>0.5776420027754234</v>
       </c>
       <c r="I10">
-        <v>11.06507100064303</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="J10">
-        <v>0.4910620617405592</v>
+        <v>0.7225070228786514</v>
       </c>
       <c r="K10">
-        <v>2.473169336351002</v>
+        <v>3.638811371312551</v>
       </c>
       <c r="L10">
-        <v>0.89320605991776</v>
+        <v>1.314187556825159</v>
       </c>
       <c r="M10">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="N10">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O10">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P10">
-        <v>66.08100594463146</v>
+        <v>97.22598138543746</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.9137070364789502</v>
+        <v>1.344350953054201</v>
       </c>
       <c r="C11">
-        <v>23.28830022577434</v>
+        <v>34.26442760491248</v>
       </c>
       <c r="D11">
-        <v>0.004848657516693041</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E11">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F11">
-        <v>0.6798890001560038</v>
+        <v>1.000330947272779</v>
       </c>
       <c r="G11">
-        <v>4.594401648921317</v>
+        <v>6.759812487865697</v>
       </c>
       <c r="H11">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I11">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J11">
-        <v>0.5385841967477097</v>
+        <v>0.7924270573507791</v>
       </c>
       <c r="K11">
-        <v>2.71250830438497</v>
+        <v>3.990954407246023</v>
       </c>
       <c r="L11">
-        <v>0.6304983952360658</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M11">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N11">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O11">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P11">
-        <v>45.04984370846874</v>
+        <v>66.28251497088915</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.5614194461199002</v>
+        <v>0.8260249043970641</v>
       </c>
       <c r="C12">
-        <v>14.30929618777143</v>
+        <v>21.05348344661515</v>
       </c>
       <c r="D12">
-        <v>0.004848657516693041</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E12">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F12">
-        <v>0.3824375625877522</v>
+        <v>0.5626861578409382</v>
       </c>
       <c r="G12">
-        <v>2.58435092751824</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="H12">
-        <v>0.09298480570676908</v>
+        <v>0.1368099480257582</v>
       </c>
       <c r="I12">
-        <v>2.620674710678612</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="J12">
-        <v>0.3009735217119556</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K12">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L12">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M12">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N12">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O12">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P12">
-        <v>27.81250987113094</v>
+        <v>40.92096553854834</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.3983463919254277</v>
+        <v>0.5860930585522403</v>
       </c>
       <c r="C13">
-        <v>10.15293742813051</v>
+        <v>14.93817007298637</v>
       </c>
       <c r="D13">
-        <v>0.007272986275039562</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E13">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F13">
-        <v>0.4249306250975024</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G13">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H13">
-        <v>0.06198987047117938</v>
+        <v>0.09120663201717216</v>
       </c>
       <c r="I13">
-        <v>1.747116473785742</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="J13">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K13">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L13">
-        <v>0.5779568622997272</v>
+        <v>0.8503566544162796</v>
       </c>
       <c r="M13">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="P13">
-        <v>24.30532874461255</v>
+        <v>35.76079701435932</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2626596521758292</v>
+        <v>0.3864551104828834</v>
       </c>
       <c r="C14">
-        <v>6.694593116673553</v>
+        <v>9.849855891875391</v>
       </c>
       <c r="D14">
-        <v>0.007757852026708865</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E14">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F14">
-        <v>0.2549583750585014</v>
+        <v>0.3751241052272922</v>
       </c>
       <c r="G14">
-        <v>1.722900618345494</v>
+        <v>2.534929682949637</v>
       </c>
       <c r="H14">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I14">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J14">
-        <v>0.3484956567191065</v>
+        <v>0.5127469194622689</v>
       </c>
       <c r="K14">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="L14">
-        <v>0.840664526981421</v>
+        <v>1.236882406423681</v>
       </c>
       <c r="M14">
-        <v>5.120321324278483</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="N14">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O14">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P14">
-        <v>20.88452721175733</v>
+        <v>30.72772009002603</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.200418028437481</v>
+        <v>0.2948780700840958</v>
       </c>
       <c r="C15">
-        <v>5.10819664352816</v>
+        <v>7.515766817971267</v>
       </c>
       <c r="D15">
-        <v>0.005818389020031649</v>
+        <v>0.008560683580223088</v>
       </c>
       <c r="E15">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="F15">
-        <v>0.4674236876072527</v>
+        <v>0.6877275262500354</v>
       </c>
       <c r="G15">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H15">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I15">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J15">
-        <v>0.2692920983738549</v>
+        <v>0.3962135286753896</v>
       </c>
       <c r="K15">
-        <v>1.356254152192485</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="L15">
-        <v>0.7355814611087435</v>
+        <v>1.08227210562072</v>
       </c>
       <c r="M15">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="N15">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O15">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P15">
-        <v>19.42539686972082</v>
+        <v>28.58087959560866</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1829903737907435</v>
+        <v>0.2692364987724354</v>
       </c>
       <c r="C16">
-        <v>4.664005631047448</v>
+        <v>6.862221877278112</v>
       </c>
       <c r="D16">
-        <v>0.002181895882511868</v>
+        <v>0.00321025634258366</v>
       </c>
       <c r="E16">
-        <v>0.7891946436008044</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="F16">
-        <v>0.5524098126267534</v>
+        <v>0.8127688946591326</v>
       </c>
       <c r="G16">
-        <v>3.73295133974857</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="H16">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I16">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J16">
-        <v>0.2534513867048047</v>
+        <v>0.3729068505180137</v>
       </c>
       <c r="K16">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="L16">
-        <v>0.6304983952360658</v>
+        <v>0.9276618048177596</v>
       </c>
       <c r="M16">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="N16">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O16">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P16">
-        <v>16.99539722580734</v>
+        <v>25.00558444432554</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.3684704125310208</v>
+        <v>0.5421360791608226</v>
       </c>
       <c r="C17">
-        <v>9.391467121020709</v>
+        <v>13.81780731751239</v>
       </c>
       <c r="D17">
-        <v>0.003151627385850476</v>
+        <v>0.004637036939287507</v>
       </c>
       <c r="E17">
-        <v>1.139947818534495</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="F17">
-        <v>0.8498612501950048</v>
+        <v>1.250413684090974</v>
       </c>
       <c r="G17">
-        <v>5.743002061151644</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="H17">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I17">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J17">
-        <v>0.5861063317548612</v>
+        <v>0.8623470918229067</v>
       </c>
       <c r="K17">
-        <v>2.951847272418938</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="L17">
-        <v>0.9457475928540987</v>
+        <v>1.39149270722664</v>
       </c>
       <c r="M17">
-        <v>5.760361489813294</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="N17">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O17">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P17">
-        <v>29.14385140674184</v>
+        <v>42.87978843339688</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.8116307735480596</v>
+        <v>1.19416460680019</v>
       </c>
       <c r="C18">
-        <v>20.6866100098159</v>
+        <v>30.43652152370971</v>
       </c>
       <c r="D18">
-        <v>0.001939463006677216</v>
+        <v>0.002853561193407696</v>
       </c>
       <c r="E18">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="F18">
-        <v>1.359778000312008</v>
+        <v>2.000661894545558</v>
       </c>
       <c r="G18">
-        <v>9.188803297842634</v>
+        <v>13.51962497573139</v>
       </c>
       <c r="H18">
-        <v>0.495918963769435</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I18">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J18">
-        <v>1.346460491869275</v>
+        <v>1.981067643376947</v>
       </c>
       <c r="K18">
-        <v>6.781270760962425</v>
+        <v>9.977386018115057</v>
       </c>
       <c r="L18">
-        <v>1.733870586899182</v>
+        <v>2.551069963248839</v>
       </c>
       <c r="M18">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="N18">
-        <v>0.02971507262344798</v>
+        <v>0.04372023483079239</v>
       </c>
       <c r="O18">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="P18">
-        <v>68.14471847645675</v>
+        <v>100.2623527804531</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.429067681032472</v>
+        <v>2.102608847556162</v>
       </c>
       <c r="C19">
-        <v>36.42366302341819</v>
+        <v>53.59068513683859</v>
       </c>
       <c r="D19">
-        <v>0.003394060261685129</v>
+        <v>0.004993732088463468</v>
       </c>
       <c r="E19">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="F19">
-        <v>2.507090688075265</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G19">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H19">
-        <v>1.02283286277446</v>
+        <v>1.504909428283341</v>
       </c>
       <c r="I19">
-        <v>28.82742181746474</v>
+        <v>42.41422080292472</v>
       </c>
       <c r="J19">
-        <v>2.281062480343243</v>
+        <v>3.356161654662122</v>
       </c>
       <c r="K19">
-        <v>11.48827046563046</v>
+        <v>16.90286572480669</v>
       </c>
       <c r="L19">
-        <v>3.09995044324399</v>
+        <v>4.561003873687317</v>
       </c>
       <c r="M19">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="N19">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O19">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P19">
-        <v>125.7978814546982</v>
+        <v>185.0883216107519</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.935714498262626</v>
+        <v>2.848045956402294</v>
       </c>
       <c r="C20">
-        <v>49.33693031482167</v>
+        <v>72.59017019841815</v>
       </c>
       <c r="D20">
-        <v>0.003636493137519781</v>
+        <v>0.00535042723763943</v>
       </c>
       <c r="E20">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="F20">
-        <v>2.209639250507013</v>
+        <v>3.25107557863653</v>
       </c>
       <c r="G20">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="H20">
-        <v>0.8885214767535708</v>
+        <v>1.307295058912801</v>
       </c>
       <c r="I20">
-        <v>25.04200279092897</v>
+        <v>36.84467665708613</v>
       </c>
       <c r="J20">
-        <v>2.217699633667042</v>
+        <v>3.262934942032619</v>
       </c>
       <c r="K20">
-        <v>11.16915184158517</v>
+        <v>16.43334167689539</v>
       </c>
       <c r="L20">
-        <v>2.67961817975328</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M20">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N20">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O20">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P20">
-        <v>129.7155193220617</v>
+        <v>190.8524013326362</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.534878441387665</v>
+        <v>2.258289816234101</v>
       </c>
       <c r="C21">
-        <v>39.12053702776534</v>
+        <v>57.55863656247558</v>
       </c>
       <c r="D21">
-        <v>0.003878926013354433</v>
+        <v>0.005707122386815392</v>
       </c>
       <c r="E21">
-        <v>1.403012699734763</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="F21">
-        <v>1.104819625253507</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G21">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H21">
-        <v>0.3719392228270763</v>
+        <v>0.547239792103033</v>
       </c>
       <c r="I21">
-        <v>10.48269884271445</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="J21">
-        <v>1.742478283595533</v>
+        <v>2.563734597311344</v>
       </c>
       <c r="K21">
-        <v>8.775762161245488</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="L21">
-        <v>1.944036718644537</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M21">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N21">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O21">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P21">
-        <v>86.45646803367747</v>
+        <v>127.2047062772642</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.817455413159765</v>
+        <v>2.674049579644597</v>
       </c>
       <c r="C22">
-        <v>46.3227770158454</v>
+        <v>68.1554009580003</v>
       </c>
       <c r="D22">
-        <v>0.0121216437917326</v>
+        <v>0.0178347574587981</v>
       </c>
       <c r="E22">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="F22">
-        <v>3.441938063289771</v>
+        <v>5.064175420568444</v>
       </c>
       <c r="G22">
-        <v>23.25915834766416</v>
+        <v>34.22155071982009</v>
       </c>
       <c r="H22">
-        <v>0.3822708679056062</v>
+        <v>0.562440897439228</v>
       </c>
       <c r="I22">
-        <v>10.77388492167874</v>
+        <v>15.85177949200217</v>
       </c>
       <c r="J22">
-        <v>3.294868027162462</v>
+        <v>4.847789056734178</v>
       </c>
       <c r="K22">
-        <v>16.59416845035511</v>
+        <v>24.41525049138744</v>
       </c>
       <c r="L22">
-        <v>3.520282706734701</v>
+        <v>5.179445076899157</v>
       </c>
       <c r="M22">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="N22">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O22">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P22">
-        <v>135.9104660322793</v>
+        <v>199.9671199256926</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.633220206894255</v>
+        <v>2.402981540064186</v>
       </c>
       <c r="C23">
-        <v>41.62704345533507</v>
+        <v>61.24649729924414</v>
       </c>
       <c r="D23">
-        <v>0.01260650954340191</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E23">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F23">
-        <v>2.804542125643517</v>
+        <v>4.126365157500214</v>
       </c>
       <c r="G23">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="H23">
-        <v>0.2376278368061875</v>
+        <v>0.3496254227324931</v>
       </c>
       <c r="I23">
-        <v>6.697279816178675</v>
+        <v>9.853808873406754</v>
       </c>
       <c r="J23">
-        <v>3.564160125536317</v>
+        <v>5.244002585409567</v>
       </c>
       <c r="K23">
-        <v>17.95042260254759</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="L23">
-        <v>2.67961817975328</v>
+        <v>3.942562670475479</v>
       </c>
       <c r="M23">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="N23">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O23">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P23">
-        <v>117.8714685835701</v>
+        <v>173.4260707226933</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.714134317754108</v>
+        <v>2.522031692582609</v>
       </c>
       <c r="C24">
-        <v>43.68935887042411</v>
+        <v>64.28081309531944</v>
       </c>
       <c r="D24">
-        <v>0.01260650954340191</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E24">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F24">
-        <v>2.507090688075265</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G24">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H24">
-        <v>0.2272961917276577</v>
+        <v>0.3344243173962979</v>
       </c>
       <c r="I24">
-        <v>6.406093737214384</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="J24">
-        <v>3.326549450500563</v>
+        <v>4.894402413048931</v>
       </c>
       <c r="K24">
-        <v>16.75372776237775</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="L24">
-        <v>2.364368982135248</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M24">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N24">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O24">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P24">
-        <v>114.5682284453326</v>
+        <v>168.5659636525767</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1624,49 +1624,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.729072307451311</v>
+        <v>2.544010182278318</v>
       </c>
       <c r="C25">
-        <v>44.07009402397898</v>
+        <v>64.84099447305643</v>
       </c>
       <c r="D25">
-        <v>0.009697315033386082</v>
+        <v>0.01426780596703848</v>
       </c>
       <c r="E25">
-        <v>3.507531749336908</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="F25">
-        <v>2.634569875604515</v>
+        <v>3.876282420682018</v>
       </c>
       <c r="G25">
-        <v>17.8033063895701</v>
+        <v>26.19427339047958</v>
       </c>
       <c r="H25">
-        <v>0.2169645466491278</v>
+        <v>0.3192232120601024</v>
       </c>
       <c r="I25">
-        <v>6.114907658250096</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="J25">
-        <v>2.629558137062349</v>
+        <v>3.868908574124391</v>
       </c>
       <c r="K25">
-        <v>13.24342289787956</v>
+        <v>19.48524798831882</v>
       </c>
       <c r="L25">
-        <v>2.206744383326231</v>
+        <v>3.246816316862161</v>
       </c>
       <c r="M25">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="N25">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O25">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P25">
-        <v>108.7718283599316</v>
+        <v>160.0376327237476</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1674,49 +1674,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.77886560644199</v>
+        <v>2.617271814597349</v>
       </c>
       <c r="C26">
-        <v>45.33921120249527</v>
+        <v>66.70826573217971</v>
       </c>
       <c r="D26">
-        <v>0.01042461366089004</v>
+        <v>0.01533789141456637</v>
       </c>
       <c r="E26">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="F26">
-        <v>2.337118438036264</v>
+        <v>3.438637631250179</v>
       </c>
       <c r="G26">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="H26">
-        <v>0.1239797409423588</v>
+        <v>0.1824132640343443</v>
       </c>
       <c r="I26">
-        <v>3.494232947571485</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="J26">
-        <v>3.358230873838663</v>
+        <v>4.94101576936368</v>
       </c>
       <c r="K26">
-        <v>16.9132870744004</v>
+        <v>24.88477453929874</v>
       </c>
       <c r="L26">
-        <v>2.942325844434974</v>
+        <v>4.329088422482879</v>
       </c>
       <c r="M26">
-        <v>17.92112463497468</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="N26">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O26">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P26">
-        <v>115.1142139607104</v>
+        <v>169.3692803817337</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1724,49 +1724,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.867248712150443</v>
+        <v>2.747311211963628</v>
       </c>
       <c r="C27">
-        <v>47.59189419436173</v>
+        <v>70.02267221712361</v>
       </c>
       <c r="D27">
-        <v>0.008242717778378171</v>
+        <v>0.01212763507198271</v>
       </c>
       <c r="E27">
-        <v>2.981401986936372</v>
+        <v>4.386581740708678</v>
       </c>
       <c r="F27">
-        <v>3.271965813250768</v>
+        <v>4.81409268375025</v>
       </c>
       <c r="G27">
-        <v>22.11055793543384</v>
+        <v>32.53159759785367</v>
       </c>
       <c r="H27">
-        <v>0.2479594818847175</v>
+        <v>0.3648265280686886</v>
       </c>
       <c r="I27">
-        <v>6.988465895142969</v>
+        <v>10.28223534616357</v>
       </c>
       <c r="J27">
-        <v>2.819646677090953</v>
+        <v>4.148588712012901</v>
       </c>
       <c r="K27">
-        <v>14.20077877001543</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="L27">
-        <v>1.155913724599454</v>
+        <v>1.700713308832559</v>
       </c>
       <c r="M27">
-        <v>7.040441820882911</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="N27">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O27">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P27">
-        <v>111.449633329086</v>
+        <v>163.9775275901028</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1774,49 +1774,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.80749675336163</v>
+        <v>2.659397253180791</v>
       </c>
       <c r="C28">
-        <v>46.06895358014212</v>
+        <v>67.7819467061756</v>
       </c>
       <c r="D28">
-        <v>0.01260650954340191</v>
+        <v>0.01854814775715003</v>
       </c>
       <c r="E28">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="F28">
-        <v>3.229472750741019</v>
+        <v>4.751571999545701</v>
       </c>
       <c r="G28">
-        <v>21.82340783237625</v>
+        <v>32.10910931736205</v>
       </c>
       <c r="H28">
-        <v>0.2272961917276577</v>
+        <v>0.3344243173962979</v>
       </c>
       <c r="I28">
-        <v>6.406093737214384</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="J28">
-        <v>2.66123956040045</v>
+        <v>3.915521930439143</v>
       </c>
       <c r="K28">
-        <v>13.40298220990221</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="L28">
-        <v>2.364368982135248</v>
+        <v>3.478731768066599</v>
       </c>
       <c r="M28">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="N28">
-        <v>0.1584803873250558</v>
+        <v>0.2331745857642261</v>
       </c>
       <c r="O28">
-        <v>2.504640983093422</v>
+        <v>3.685116080155988</v>
       </c>
       <c r="P28">
-        <v>119.6277344766341</v>
+        <v>176.0100912379073</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1824,49 +1824,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.987997462202839</v>
+        <v>2.924970670337275</v>
       </c>
       <c r="C29">
-        <v>50.66950335226377</v>
+        <v>74.55080502049761</v>
       </c>
       <c r="D29">
-        <v>0.01090947941255934</v>
+        <v>0.01605128171291829</v>
       </c>
       <c r="E29">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="F29">
-        <v>3.144486625721518</v>
+        <v>4.626530631136602</v>
       </c>
       <c r="G29">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="H29">
-        <v>0.299617707277367</v>
+        <v>0.4408320547496653</v>
       </c>
       <c r="I29">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="J29">
-        <v>2.6453988487314</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K29">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L29">
-        <v>1.418621389281148</v>
+        <v>2.08723906083996</v>
       </c>
       <c r="M29">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="N29">
-        <v>0.2476256051953998</v>
+        <v>0.3643352902566033</v>
       </c>
       <c r="O29">
-        <v>3.913501536083472</v>
+        <v>5.757993875243733</v>
       </c>
       <c r="P29">
-        <v>119.9408839290098</v>
+        <v>176.4708327534505</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1874,49 +1874,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.490909782008691</v>
+        <v>3.66491315675948</v>
       </c>
       <c r="C30">
-        <v>63.48758685527854</v>
+        <v>93.41024473764281</v>
       </c>
       <c r="D30">
-        <v>0.005333523268362346</v>
+        <v>0.007847293281871164</v>
       </c>
       <c r="E30">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="F30">
-        <v>1.997173937958261</v>
+        <v>2.938472157613789</v>
       </c>
       <c r="G30">
-        <v>13.49605484370637</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="H30">
-        <v>0.495918963769435</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I30">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J30">
-        <v>2.296903192012292</v>
+        <v>3.379468332819498</v>
       </c>
       <c r="K30">
-        <v>11.56805012164178</v>
+        <v>17.02024673678451</v>
       </c>
       <c r="L30">
-        <v>1.103372191663115</v>
+        <v>1.62340815843108</v>
       </c>
       <c r="M30">
-        <v>6.720421738115507</v>
+        <v>9.887857932425902</v>
       </c>
       <c r="N30">
-        <v>0.1287653147016079</v>
+        <v>0.1894543509334337</v>
       </c>
       <c r="O30">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="P30">
-        <v>121.7315855153086</v>
+        <v>179.1055190238476</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1924,49 +1924,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.591741212464816</v>
+        <v>3.813267962205515</v>
       </c>
       <c r="C31">
-        <v>66.05754914177407</v>
+        <v>97.19146903736753</v>
       </c>
       <c r="D31">
-        <v>0.007030553399204909</v>
+        <v>0.0103441593261029</v>
       </c>
       <c r="E31">
-        <v>2.542960518269258</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="F31">
-        <v>2.507090688075265</v>
+        <v>3.688720368068372</v>
       </c>
       <c r="G31">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="H31">
-        <v>0.7232151554970929</v>
+        <v>1.064077373533675</v>
       </c>
       <c r="I31">
-        <v>20.38302552750032</v>
+        <v>29.98985309297707</v>
       </c>
       <c r="J31">
-        <v>1.758318995264583</v>
+        <v>2.58704127546872</v>
       </c>
       <c r="K31">
-        <v>8.855541817256814</v>
+        <v>13.02929232953849</v>
       </c>
       <c r="L31">
-        <v>0.9982891257904372</v>
+        <v>1.468797857628119</v>
       </c>
       <c r="M31">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="N31">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O31">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P31">
-        <v>130.1127807308745</v>
+        <v>191.4368980391596</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1974,49 +1974,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.050239085941187</v>
+        <v>3.016547710736063</v>
       </c>
       <c r="C32">
-        <v>52.25589982540921</v>
+        <v>76.88489409440172</v>
       </c>
       <c r="D32">
-        <v>0.005091090392527693</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E32">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F32">
-        <v>2.124653125487513</v>
+        <v>3.126034210227434</v>
       </c>
       <c r="G32">
-        <v>14.35750515287911</v>
+        <v>21.1244140245803</v>
       </c>
       <c r="H32">
-        <v>0.485587318690905</v>
+        <v>0.7144519508011817</v>
       </c>
       <c r="I32">
-        <v>13.68574571132164</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="J32">
-        <v>1.235575510185923</v>
+        <v>1.817920896275317</v>
       </c>
       <c r="K32">
-        <v>6.222813168883166</v>
+        <v>9.15571893427029</v>
       </c>
       <c r="L32">
-        <v>0.7881229940450823</v>
+        <v>1.159577256022199</v>
       </c>
       <c r="M32">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="N32">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O32">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P32">
-        <v>101.3509941640096</v>
+        <v>149.1192473710539</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2024,49 +2024,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.716623982703641</v>
+        <v>2.525694774198561</v>
       </c>
       <c r="C33">
-        <v>43.7528147293499</v>
+        <v>64.37417665827562</v>
       </c>
       <c r="D33">
-        <v>0.007272986275039562</v>
+        <v>0.01070085447527886</v>
       </c>
       <c r="E33">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="F33">
-        <v>1.657229437880259</v>
+        <v>2.438306683977398</v>
       </c>
       <c r="G33">
-        <v>11.19885401924571</v>
+        <v>16.47704293917263</v>
       </c>
       <c r="H33">
-        <v>0.6612252850259135</v>
+        <v>0.9728707415165028</v>
       </c>
       <c r="I33">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="J33">
-        <v>0.7920355834525148</v>
+        <v>1.165333907868793</v>
       </c>
       <c r="K33">
-        <v>3.988982800566132</v>
+        <v>5.869050598891212</v>
       </c>
       <c r="L33">
-        <v>0.840664526981421</v>
+        <v>1.236882406423681</v>
       </c>
       <c r="M33">
-        <v>5.120321324278483</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="N33">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O33">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P33">
-        <v>91.16902762712743</v>
+        <v>134.1383663322343</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2074,49 +2074,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.410395193910969</v>
+        <v>2.075135735436526</v>
       </c>
       <c r="C34">
-        <v>35.94774408147456</v>
+        <v>52.89045841466737</v>
       </c>
       <c r="D34">
-        <v>0.004848657516693041</v>
+        <v>0.007133902983519241</v>
       </c>
       <c r="E34">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="F34">
-        <v>1.104819625253507</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G34">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H34">
-        <v>0.3202809974344267</v>
+        <v>0.4712342654220559</v>
       </c>
       <c r="I34">
-        <v>9.026768447892996</v>
+        <v>13.28122065546128</v>
       </c>
       <c r="J34">
-        <v>0.5069027734096093</v>
+        <v>0.7458137010360274</v>
       </c>
       <c r="K34">
-        <v>2.552948992362325</v>
+        <v>3.756192383290375</v>
       </c>
       <c r="L34">
-        <v>0.4203322634907105</v>
+        <v>0.6184412032118403</v>
       </c>
       <c r="M34">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="N34">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O34">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P34">
-        <v>63.74065059165525</v>
+        <v>93.78258123238247</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2124,49 +2124,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.9971108122883366</v>
+        <v>1.467064187188576</v>
       </c>
       <c r="C35">
-        <v>25.41407149978918</v>
+        <v>37.39210696394399</v>
       </c>
       <c r="D35">
-        <v>0.004606224640858389</v>
+        <v>0.006777207834343279</v>
       </c>
       <c r="E35">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="F35">
-        <v>1.062326562743756</v>
+        <v>1.563017105113717</v>
       </c>
       <c r="G35">
-        <v>7.178752576439557</v>
+        <v>10.56220701229015</v>
       </c>
       <c r="H35">
-        <v>0.1756379663350082</v>
+        <v>0.258418790715321</v>
       </c>
       <c r="I35">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="J35">
-        <v>0.3801770800572071</v>
+        <v>0.5593602757770205</v>
       </c>
       <c r="K35">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="L35">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M35">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N35">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O35">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P35">
-        <v>48.75338147969342</v>
+        <v>71.73158598998141</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2174,49 +2174,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.6273955672825486</v>
+        <v>0.9230965672197783</v>
       </c>
       <c r="C36">
-        <v>15.99087644930555</v>
+        <v>23.52761786495353</v>
       </c>
       <c r="D36">
-        <v>0.008485150654212821</v>
+        <v>0.01248433022115867</v>
       </c>
       <c r="E36">
-        <v>3.069090280669794</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="F36">
-        <v>0.4249306250975024</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G36">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H36">
-        <v>0.09298480570676908</v>
+        <v>0.1368099480257582</v>
       </c>
       <c r="I36">
-        <v>2.620674710678612</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="J36">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K36">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L36">
-        <v>0.4728737964270494</v>
+        <v>0.69574635361332</v>
       </c>
       <c r="M36">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="N36">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O36">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P36">
-        <v>31.13784560056311</v>
+        <v>45.81358218547108</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,49 +2224,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.4767708378357464</v>
+        <v>0.7014801294547126</v>
       </c>
       <c r="C37">
-        <v>12.1517969842937</v>
+        <v>17.87912230610557</v>
       </c>
       <c r="D37">
-        <v>0.01018218078505539</v>
+        <v>0.01498119626539041</v>
       </c>
       <c r="E37">
-        <v>3.682908336803754</v>
+        <v>5.418718620875426</v>
       </c>
       <c r="F37">
-        <v>0.4249306250975024</v>
+        <v>0.6252068420454868</v>
       </c>
       <c r="G37">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="H37">
-        <v>0.04132658031411959</v>
+        <v>0.06080442134478142</v>
       </c>
       <c r="I37">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="J37">
-        <v>0.2692920983738549</v>
+        <v>0.3962135286753896</v>
       </c>
       <c r="K37">
-        <v>1.356254152192485</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="L37">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M37">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N37">
-        <v>0.03962009683126396</v>
+        <v>0.05829364644105652</v>
       </c>
       <c r="O37">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="P37">
-        <v>26.84110364177126</v>
+        <v>39.49172089217362</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2274,49 +2274,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.267638982074897</v>
+        <v>0.3937812737147865</v>
       </c>
       <c r="C38">
-        <v>6.821504834525186</v>
+        <v>10.03658301778772</v>
       </c>
       <c r="D38">
-        <v>0.007030553399204909</v>
+        <v>0.0103441593261029</v>
       </c>
       <c r="E38">
-        <v>2.542960518269258</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="F38">
-        <v>0.3399445000780019</v>
+        <v>0.5001654736363895</v>
       </c>
       <c r="G38">
-        <v>2.297200824460659</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="H38">
-        <v>0.0206632901570598</v>
+        <v>0.03040221067239071</v>
       </c>
       <c r="I38">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="J38">
-        <v>0.3168142333810059</v>
+        <v>0.4661335631475171</v>
       </c>
       <c r="K38">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="L38">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M38">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N38">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P38">
-        <v>18.85022934284006</v>
+        <v>27.73462693249282</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2324,49 +2324,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.1792558763664425</v>
+        <v>0.2637418763485081</v>
       </c>
       <c r="C39">
-        <v>4.568821842658726</v>
+        <v>6.722176532843865</v>
       </c>
       <c r="D39">
-        <v>0.005091090392527693</v>
+        <v>0.007490598132695203</v>
       </c>
       <c r="E39">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="F39">
-        <v>0.5099167501170029</v>
+        <v>0.7502482104545843</v>
       </c>
       <c r="G39">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="H39">
-        <v>0.0103316450785299</v>
+        <v>0.01520110533619536</v>
       </c>
       <c r="I39">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="J39">
-        <v>0.3009735217119556</v>
+        <v>0.4428268849901412</v>
       </c>
       <c r="K39">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="L39">
-        <v>0.5254153293633883</v>
+        <v>0.7730515040147998</v>
       </c>
       <c r="M39">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="N39">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O39">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P39">
-        <v>16.56070691728606</v>
+        <v>24.36601803275893</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2374,49 +2374,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1805007088412095</v>
+        <v>0.2655734171564841</v>
       </c>
       <c r="C40">
-        <v>4.600549772121635</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="D40">
-        <v>0.002666761634181173</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E40">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F40">
-        <v>0.4674236876072527</v>
+        <v>0.6877275262500354</v>
       </c>
       <c r="G40">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="H40">
-        <v>0.03099493523558969</v>
+        <v>0.04560331600858608</v>
       </c>
       <c r="I40">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="J40">
-        <v>0.3326549450500562</v>
+        <v>0.4894402413048929</v>
       </c>
       <c r="K40">
-        <v>1.675372776237776</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="L40">
-        <v>0.6830399281724047</v>
+        <v>1.00496695521924</v>
       </c>
       <c r="M40">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="N40">
-        <v>0.01981004841563198</v>
+        <v>0.02914682322052826</v>
       </c>
       <c r="O40">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="P40">
-        <v>17.46313536377261</v>
+        <v>25.69377462613322</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2424,49 +2424,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3373496006618468</v>
+        <v>0.4963475589614285</v>
       </c>
       <c r="C41">
-        <v>8.59826888444802</v>
+        <v>12.65076278056032</v>
       </c>
       <c r="D41">
-        <v>0.002666761634181173</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E41">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F41">
-        <v>0.5949028751365035</v>
+        <v>0.8752895788636813</v>
       </c>
       <c r="G41">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="H41">
-        <v>0.05165822539264948</v>
+        <v>0.07600552668097676</v>
       </c>
       <c r="I41">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="J41">
-        <v>0.8078762951215651</v>
+        <v>1.188640586026169</v>
       </c>
       <c r="K41">
-        <v>4.068762456577455</v>
+        <v>5.986431610869034</v>
       </c>
       <c r="L41">
-        <v>1.050830658726777</v>
+        <v>1.5461030080296</v>
       </c>
       <c r="M41">
-        <v>6.400401655348105</v>
+        <v>9.417007554691338</v>
       </c>
       <c r="N41">
-        <v>0.00990502420781599</v>
+        <v>0.01457341161026413</v>
       </c>
       <c r="O41">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="P41">
-        <v>28.51976556739351</v>
+        <v>41.96156151883935</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2474,49 +2474,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.8763620622359409</v>
+        <v>1.289404728814928</v>
       </c>
       <c r="C42">
-        <v>22.33646234188712</v>
+        <v>32.86397416057</v>
       </c>
       <c r="D42">
-        <v>0.002666761634181173</v>
+        <v>0.003923646640935582</v>
       </c>
       <c r="E42">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="F42">
-        <v>1.104819625253507</v>
+        <v>1.625537789318265</v>
       </c>
       <c r="G42">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="H42">
-        <v>0.4339290932982556</v>
+        <v>0.6384464241202048</v>
       </c>
       <c r="I42">
-        <v>12.22981531650019</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="J42">
-        <v>1.59991187857408</v>
+        <v>2.353974493894961</v>
       </c>
       <c r="K42">
-        <v>8.057745257143587</v>
+        <v>11.85548220976025</v>
       </c>
       <c r="L42">
-        <v>1.944036718644537</v>
+        <v>2.86029056485476</v>
       </c>
       <c r="M42">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="N42">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O42">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P42">
-        <v>70.18852671333943</v>
+        <v>103.2694386859107</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2524,49 +2524,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.304584433555776</v>
+        <v>1.919454766758588</v>
       </c>
       <c r="C43">
-        <v>33.25087007712741</v>
+        <v>48.92250698903035</v>
       </c>
       <c r="D43">
-        <v>0.00121216437917326</v>
+        <v>0.00178347574587981</v>
       </c>
       <c r="E43">
-        <v>0.4384414686671135</v>
+        <v>0.6450855501042174</v>
       </c>
       <c r="F43">
-        <v>1.572243312860759</v>
+        <v>2.313265315568301</v>
       </c>
       <c r="G43">
-        <v>10.62455381313055</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="H43">
-        <v>0.8471948964394518</v>
+        <v>1.246490637568019</v>
       </c>
       <c r="I43">
-        <v>23.87725847507181</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="J43">
-        <v>1.948407535293186</v>
+        <v>2.86672141335723</v>
       </c>
       <c r="K43">
-        <v>9.812897689392685</v>
+        <v>14.43786447327238</v>
       </c>
       <c r="L43">
-        <v>3.888073437289074</v>
+        <v>5.72058112970952</v>
       </c>
       <c r="M43">
-        <v>23.68148612478798</v>
+        <v>34.84292795235795</v>
       </c>
       <c r="N43">
-        <v>0.08914521787034392</v>
+        <v>0.1311607044923771</v>
       </c>
       <c r="O43">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="P43">
-        <v>112.7452291988554</v>
+        <v>165.8837573473008</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2574,49 +2574,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.088828892658963</v>
+        <v>3.073325475783312</v>
       </c>
       <c r="C44">
-        <v>53.23946563875936</v>
+        <v>78.33202932022226</v>
       </c>
       <c r="D44">
-        <v>0.004121358889189086</v>
+        <v>0.006063817535991355</v>
       </c>
       <c r="E44">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="F44">
-        <v>1.997173937958261</v>
+        <v>2.938472157613789</v>
       </c>
       <c r="G44">
-        <v>13.49605484370637</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="H44">
-        <v>0.9505113472247502</v>
+        <v>1.398501690929973</v>
       </c>
       <c r="I44">
-        <v>26.7891192647147</v>
+        <v>39.41523549362702</v>
       </c>
       <c r="J44">
-        <v>2.312743903681343</v>
+        <v>3.402775010976875</v>
       </c>
       <c r="K44">
-        <v>11.6478297776531</v>
+        <v>17.13762774876234</v>
       </c>
       <c r="L44">
-        <v>2.837242778562296</v>
+        <v>4.174478121679919</v>
       </c>
       <c r="M44">
-        <v>17.28108446943988</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="N44">
-        <v>0.1782904357406878</v>
+        <v>0.2623214089847543</v>
       </c>
       <c r="O44">
-        <v>2.817721105980099</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="P44">
-        <v>137.1308887484372</v>
+        <v>201.7627462874182</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2624,49 +2624,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.119949704528137</v>
+        <v>3.119113995982704</v>
       </c>
       <c r="C45">
-        <v>54.03266387533203</v>
+        <v>79.49907385717435</v>
       </c>
       <c r="D45">
-        <v>0.008485150654212821</v>
+        <v>0.01248433022115867</v>
       </c>
       <c r="E45">
-        <v>3.069090280669794</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="F45">
-        <v>2.422104563055764</v>
+        <v>3.563678999659275</v>
       </c>
       <c r="G45">
-        <v>16.36755587428219</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="H45">
-        <v>0.495918963769435</v>
+        <v>0.7296530561373773</v>
       </c>
       <c r="I45">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="J45">
-        <v>2.6453988487314</v>
+        <v>3.892215252281768</v>
       </c>
       <c r="K45">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="L45">
-        <v>3.205033509116668</v>
+        <v>4.715614174490279</v>
       </c>
       <c r="M45">
-        <v>19.52122504881171</v>
+        <v>28.72187304180859</v>
       </c>
       <c r="N45">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O45">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P45">
-        <v>132.5191208483374</v>
+        <v>194.9773825720904</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2674,49 +2674,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.819945078109299</v>
+        <v>2.677712661260548</v>
       </c>
       <c r="C46">
-        <v>46.38623287477125</v>
+        <v>68.24876452095647</v>
       </c>
       <c r="D46">
-        <v>0.01309137529507121</v>
+        <v>0.01926153805550195</v>
       </c>
       <c r="E46">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="F46">
-        <v>3.739389500858021</v>
+        <v>5.501820210000283</v>
       </c>
       <c r="G46">
-        <v>25.26920906906724</v>
+        <v>37.17896868326135</v>
       </c>
       <c r="H46">
-        <v>0.4545923834553154</v>
+        <v>0.6688486347925957</v>
       </c>
       <c r="I46">
-        <v>12.81218747442877</v>
+        <v>18.85076480129988</v>
       </c>
       <c r="J46">
-        <v>2.898850235436203</v>
+        <v>4.265122102799782</v>
       </c>
       <c r="K46">
-        <v>14.59967705007204</v>
+        <v>21.48072519194183</v>
       </c>
       <c r="L46">
-        <v>3.415199640862023</v>
+        <v>5.0248347760962</v>
       </c>
       <c r="M46">
-        <v>20.80130537988133</v>
+        <v>30.60527455274685</v>
       </c>
       <c r="N46">
-        <v>0.07924019366252792</v>
+        <v>0.116587292882113</v>
       </c>
       <c r="O46">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="P46">
-        <v>138.2764086090506</v>
+        <v>203.448166947297</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2724,49 +2724,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.354377732546455</v>
+        <v>1.992716399077618</v>
       </c>
       <c r="C47">
-        <v>34.51998725564374</v>
+        <v>50.78977824815365</v>
       </c>
       <c r="D47">
-        <v>0.009939747909220736</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E47">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F47">
-        <v>2.167146187997262</v>
+        <v>3.188554894431982</v>
       </c>
       <c r="G47">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="H47">
-        <v>0.1963012564920681</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I47">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J47">
-        <v>2.566195290386148</v>
+        <v>3.775681861494887</v>
       </c>
       <c r="K47">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="L47">
-        <v>2.311827449198909</v>
+        <v>3.401426617665118</v>
       </c>
       <c r="M47">
-        <v>14.08088364176582</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="N47">
-        <v>0.04952512103907997</v>
+        <v>0.07286705805132064</v>
       </c>
       <c r="O47">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="P47">
-        <v>94.73559906335822</v>
+        <v>139.3859167154617</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2774,49 +2774,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.421598686183871</v>
+        <v>2.091619602708308</v>
       </c>
       <c r="C48">
-        <v>36.23329544664074</v>
+        <v>53.31059444797011</v>
       </c>
       <c r="D48">
-        <v>0.009939747909220736</v>
+        <v>0.01462450111621445</v>
       </c>
       <c r="E48">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="F48">
-        <v>1.912187812938761</v>
+        <v>2.81343078920469</v>
       </c>
       <c r="G48">
-        <v>12.9217546375912</v>
+        <v>19.01197262212227</v>
       </c>
       <c r="H48">
-        <v>0.1963012564920681</v>
+        <v>0.2888210013877117</v>
       </c>
       <c r="I48">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="J48">
-        <v>2.407788173695645</v>
+        <v>3.54261507992113</v>
       </c>
       <c r="K48">
-        <v>12.12650771372104</v>
+        <v>17.84191382062928</v>
       </c>
       <c r="L48">
-        <v>2.049119784517214</v>
+        <v>3.014900865657719</v>
       </c>
       <c r="M48">
-        <v>12.4807832279288</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="N48">
-        <v>0.09905024207815993</v>
+        <v>0.1457341161026413</v>
       </c>
       <c r="O48">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="P48">
-        <v>92.55148288752196</v>
+        <v>136.1723936217998</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2824,49 +2824,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.43404701093154</v>
+        <v>2.109935010788065</v>
       </c>
       <c r="C49">
-        <v>36.55057474126981</v>
+        <v>53.77741226275092</v>
       </c>
       <c r="D49">
-        <v>0.007757852026708865</v>
+        <v>0.01141424477363078</v>
       </c>
       <c r="E49">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="F49">
-        <v>2.039667000468012</v>
+        <v>3.000992841818337</v>
       </c>
       <c r="G49">
-        <v>13.78320494676395</v>
+        <v>20.27943746359709</v>
       </c>
       <c r="H49">
-        <v>0.1859696114135382</v>
+        <v>0.2736198960515165</v>
       </c>
       <c r="I49">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="J49">
-        <v>1.900885400286035</v>
+        <v>2.796801378885101</v>
       </c>
       <c r="K49">
-        <v>9.573558721358717</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="L49">
-        <v>1.891495185708197</v>
+        <v>2.78298541445328</v>
       </c>
       <c r="M49">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="N49">
-        <v>0.06933516945471195</v>
+        <v>0.1020138812718489</v>
       </c>
       <c r="O49">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="P49">
-        <v>88.10037387023793</v>
+        <v>129.623409745531</v>
       </c>
     </row>
   </sheetData>
